--- a/app/Private/excel/ProcessamentoPedidoOperadora.xlsx
+++ b/app/Private/excel/ProcessamentoPedidoOperadora.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>Data Criação Ped</t>
   </si>
@@ -59,7 +59,10 @@
     <t>Id(Código do Benefício / ítem)</t>
   </si>
   <si>
-    <t>VlUnit</t>
+    <t>Valor por dia</t>
+  </si>
+  <si>
+    <t>Valor unitario</t>
   </si>
   <si>
     <t>Qtde do Benefício por Dia</t>
@@ -74,9 +77,6 @@
     <t>Taxa ADM</t>
   </si>
   <si>
-    <t>Status Operadora</t>
-  </si>
-  <si>
     <t>Economia</t>
   </si>
   <si>
@@ -95,148 +95,427 @@
     <t>Nome Grupo Economicoo</t>
   </si>
   <si>
-    <t>05/09/2024</t>
-  </si>
-  <si>
-    <t>00097117000135</t>
-  </si>
-  <si>
-    <t>Rodolfo Cliente LTDA</t>
+    <t>Status Processamento</t>
+  </si>
+  <si>
+    <t>Motivo Processamento</t>
+  </si>
+  <si>
+    <t>22/05/2025</t>
+  </si>
+  <si>
+    <t>48.503.984/0001-50</t>
+  </si>
+  <si>
+    <t>BERH BENEFICIOS LTDA</t>
   </si>
   <si>
     <t>Início</t>
   </si>
   <si>
-    <t>Joao Funcionario 3</t>
-  </si>
-  <si>
-    <t>JOAFRA TRANSPORTES</t>
-  </si>
-  <si>
-    <t>8627/JOAFRA TRANSPORTES - CARTAO INTERESTADUAL JUAZEIRO</t>
-  </si>
-  <si>
-    <t>2,32</t>
-  </si>
-  <si>
-    <t>4,64</t>
-  </si>
-  <si>
-    <t>10,00</t>
-  </si>
-  <si>
-    <t>0,05</t>
+    <t>Alexandre Lasena Silva</t>
+  </si>
+  <si>
+    <t>Rodonave Transporte</t>
+  </si>
+  <si>
+    <t>5868/FEIRA DE SANTANA X SANTO AMARO</t>
+  </si>
+  <si>
+    <t>29,52</t>
+  </si>
+  <si>
+    <t>324,72</t>
   </si>
   <si>
     <t>0,00</t>
   </si>
   <si>
+    <t>Atendimento</t>
+  </si>
+  <si>
+    <t>Atendimento e Relacionamento</t>
+  </si>
+  <si>
+    <t>INICIO_PROCESSAMENTO</t>
+  </si>
+  <si>
+    <t>BERH Interno</t>
+  </si>
+  <si>
+    <t>1/PixADM</t>
+  </si>
+  <si>
+    <t>935,56</t>
+  </si>
+  <si>
+    <t>10.291,16</t>
+  </si>
+  <si>
+    <t>Sptrans</t>
+  </si>
+  <si>
+    <t>214/SPTRANS - BILHETE ÚNICO - INTEGRAÇÃO - ONIBUS/METRO/CPTM</t>
+  </si>
+  <si>
+    <t>21,42</t>
+  </si>
+  <si>
+    <t>235,62</t>
+  </si>
+  <si>
+    <t>4,34</t>
+  </si>
+  <si>
+    <t>Alelo S.A</t>
+  </si>
+  <si>
+    <t>77892/ALELO REFEIÇÃO (PAT)</t>
+  </si>
+  <si>
+    <t>27,50</t>
+  </si>
+  <si>
+    <t>302,50</t>
+  </si>
+  <si>
+    <t>Aline Chiquinato Candido</t>
+  </si>
+  <si>
+    <t>14.07.02791587-4</t>
+  </si>
+  <si>
+    <t>Top - Autopass</t>
+  </si>
+  <si>
+    <t>9156/CARTAO TOP - INTERMUNICIPAL</t>
+  </si>
+  <si>
+    <t>11,40</t>
+  </si>
+  <si>
+    <t>125,40</t>
+  </si>
+  <si>
+    <t>5,02</t>
+  </si>
+  <si>
+    <t>Compras</t>
+  </si>
+  <si>
+    <t>Operações Logísticas, Fulfillment &amp; Produtos</t>
+  </si>
+  <si>
+    <t>384/SPTRANS - BILHETE ÚNICO - CPTM</t>
+  </si>
+  <si>
+    <t>2,31</t>
+  </si>
+  <si>
+    <t>182,40</t>
+  </si>
+  <si>
+    <t>2.006,40</t>
+  </si>
+  <si>
+    <t>Amanda Dourado Dias de Oliveira</t>
+  </si>
+  <si>
+    <t>Administrativo</t>
+  </si>
+  <si>
+    <t>Administrativo Financeiro</t>
+  </si>
+  <si>
+    <t>Cleber Silva Barbosa</t>
+  </si>
+  <si>
+    <t>Gestão Eficiente</t>
+  </si>
+  <si>
+    <t>Tecnologia</t>
+  </si>
+  <si>
+    <t>Ticket Log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83270/Ticket - Ticket Car </t>
+  </si>
+  <si>
+    <t>150,00</t>
+  </si>
+  <si>
+    <t>1.650,00</t>
+  </si>
+  <si>
+    <t>Daniel Silveira Luna</t>
+  </si>
+  <si>
+    <t>Débora Tardim Duquete</t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>Comercial e Negócios</t>
+  </si>
+  <si>
+    <t>Edivaldo Aparecido dos Santos</t>
+  </si>
+  <si>
     <t>Financeiro</t>
   </si>
   <si>
+    <t>Ednardo Teixeira de Araújo</t>
+  </si>
+  <si>
+    <t>Operaçoes</t>
+  </si>
+  <si>
+    <t>Evellyn Larissa Santos Ferreira</t>
+  </si>
+  <si>
+    <t>77891/ALELO ALIMENTAÇÃO (PAT)</t>
+  </si>
+  <si>
+    <t>Felipe Aragon</t>
+  </si>
+  <si>
+    <t>Diretoria</t>
+  </si>
+  <si>
+    <t>Gabrielly Ribeiro de Sousa</t>
+  </si>
+  <si>
+    <t>218/SPTRANS - BILHETE ÚNICO - METRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geovanna da Silva Monteiro </t>
+  </si>
+  <si>
+    <t>Implantação</t>
+  </si>
+  <si>
+    <t>Ingrid Premoli</t>
+  </si>
+  <si>
+    <t>14.07.00901248-5</t>
+  </si>
+  <si>
+    <t>0,02</t>
+  </si>
+  <si>
+    <t>0,22</t>
+  </si>
+  <si>
+    <t>0,01</t>
+  </si>
+  <si>
+    <t>Sim - Maua</t>
+  </si>
+  <si>
+    <t>1892/SIM MAUA - CARTAO SIM MAUA / MAUA (VIACAO BARAO)</t>
+  </si>
+  <si>
+    <t>14,00</t>
+  </si>
+  <si>
+    <t>154,00</t>
+  </si>
+  <si>
+    <t>4,62</t>
+  </si>
+  <si>
+    <t>516,20</t>
+  </si>
+  <si>
+    <t>5.678,20</t>
+  </si>
+  <si>
+    <t>Joabi Calado</t>
+  </si>
+  <si>
+    <t>09544442804</t>
+  </si>
+  <si>
+    <t>6056 80** ** 7003</t>
+  </si>
+  <si>
     <t>Joaquim Funcionario 2</t>
   </si>
   <si>
-    <t>ATUP</t>
-  </si>
-  <si>
-    <t>9913/ATUP - MACEIO X MURICI</t>
-  </si>
-  <si>
-    <t>1,00</t>
-  </si>
-  <si>
-    <t>31,00</t>
-  </si>
-  <si>
-    <t>0,31</t>
-  </si>
-  <si>
-    <t>9909/ATUP - UNIAO X MURICI</t>
-  </si>
-  <si>
-    <t>5,55</t>
-  </si>
-  <si>
-    <t>11,10</t>
+    <t>89/SPTRANS - BILHETE ÚNICO - ÔNIBUS</t>
+  </si>
+  <si>
+    <t>5,49</t>
+  </si>
+  <si>
+    <t>60,39</t>
+  </si>
+  <si>
+    <t>1,11</t>
+  </si>
+  <si>
+    <t>Cometa</t>
+  </si>
+  <si>
+    <t>122/SAO PAULO TBF X JUNDIAI</t>
+  </si>
+  <si>
+    <t>41,80</t>
+  </si>
+  <si>
+    <t>459,80</t>
+  </si>
+  <si>
+    <t>Joice de Souza da Silva</t>
+  </si>
+  <si>
+    <t>10,98</t>
+  </si>
+  <si>
+    <t>120,78</t>
+  </si>
+  <si>
+    <t>2,22</t>
+  </si>
+  <si>
+    <t>55,00</t>
+  </si>
+  <si>
+    <t>605,00</t>
+  </si>
+  <si>
+    <t>Juliana Nogueira da Conceicao</t>
+  </si>
+  <si>
+    <t>Keila Cristina Corrêa Rodrigues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larissa Coutinho Anastacio </t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcella Conceição da Silva Nunes </t>
+  </si>
+  <si>
+    <t>140,68</t>
+  </si>
+  <si>
+    <t>1.547,48</t>
+  </si>
+  <si>
+    <t>MARILIA GABRIELA QUINTAL FERREIRA</t>
+  </si>
+  <si>
+    <t>3.606.692.558</t>
+  </si>
+  <si>
+    <t>Aesa</t>
+  </si>
+  <si>
+    <t>164/BILHETE UNICO ANDREENSE - SANTO ANDRE MUNICIPAL</t>
+  </si>
+  <si>
+    <t>14,50</t>
+  </si>
+  <si>
+    <t>159,50</t>
+  </si>
+  <si>
+    <t>3,99</t>
+  </si>
+  <si>
+    <t>4,83</t>
+  </si>
+  <si>
+    <t>5,70</t>
+  </si>
+  <si>
+    <t>62,70</t>
+  </si>
+  <si>
+    <t>2,51</t>
+  </si>
+  <si>
+    <t>Mayla Alves dos Santos Rezende</t>
+  </si>
+  <si>
+    <t>06536925602</t>
+  </si>
+  <si>
+    <t>Michela de Jesus Pires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millena da Silva Dias </t>
+  </si>
+  <si>
+    <t>171,00</t>
+  </si>
+  <si>
+    <t>1.881,00</t>
+  </si>
+  <si>
+    <t>216,60</t>
+  </si>
+  <si>
+    <t>2.382,60</t>
+  </si>
+  <si>
+    <t>43,84</t>
+  </si>
+  <si>
+    <t>Millena Nogueira da Conceição</t>
+  </si>
+  <si>
+    <t>Paulo André Franco de Barros</t>
+  </si>
+  <si>
+    <t>863,12</t>
+  </si>
+  <si>
+    <t>9.494,32</t>
+  </si>
+  <si>
+    <t>Rodolfo Cesar Teles Pereira</t>
+  </si>
+  <si>
+    <t>TI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosecler Vieira Conessa </t>
+  </si>
+  <si>
+    <t>Rosenilde da Costa e Silva</t>
+  </si>
+  <si>
+    <t>23,00</t>
+  </si>
+  <si>
+    <t>253,00</t>
+  </si>
+  <si>
+    <t>10,12</t>
+  </si>
+  <si>
+    <t>73,50</t>
+  </si>
+  <si>
+    <t>808,50</t>
+  </si>
+  <si>
+    <t>SOLANGE MARIA DA SILVA</t>
   </si>
   <si>
     <t>0,11</t>
   </si>
   <si>
-    <t>5469/ATUP - UNIAO DOS PALMARES X MACEIO</t>
-  </si>
-  <si>
-    <t>Marcelo Silva</t>
-  </si>
-  <si>
-    <t>GVBUS TRANSCOL</t>
-  </si>
-  <si>
-    <t>310/GVBUS TRANSCOL - CARTAO MUNICIPAL VITORIA (SETPES)</t>
-  </si>
-  <si>
-    <t>4,00</t>
-  </si>
-  <si>
-    <t>8,00</t>
-  </si>
-  <si>
-    <t>0,08</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>TRANSDUARTE - PASSAREDO</t>
-  </si>
-  <si>
-    <t>7523/TRANSDUARTE PASSAREDO - FAZENDA X CHAPADAO</t>
-  </si>
-  <si>
-    <t>3,80</t>
-  </si>
-  <si>
-    <t>7,60</t>
-  </si>
-  <si>
-    <t>Teste Rodolfo</t>
-  </si>
-  <si>
-    <t>SINDCOL</t>
-  </si>
-  <si>
-    <t>2336/SINDCOL - CARTAO MUNICIPAL RIO BRANCO</t>
-  </si>
-  <si>
-    <t>3,50</t>
-  </si>
-  <si>
-    <t>8,80</t>
-  </si>
-  <si>
-    <t>0,09</t>
-  </si>
-  <si>
-    <t>Tiao da Silva Teste 1a</t>
-  </si>
-  <si>
-    <t>89,76</t>
-  </si>
-  <si>
-    <t>0,91</t>
-  </si>
-  <si>
-    <t>10 a</t>
-  </si>
-  <si>
-    <t>1,20</t>
-  </si>
-  <si>
-    <t>6,00</t>
-  </si>
-  <si>
-    <t>0,06</t>
+    <t>504,26</t>
+  </si>
+  <si>
+    <t>5.546,86</t>
   </si>
 </sst>
 </file>
@@ -575,7 +854,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:AC96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +862,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,624 +941,7598 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>1880</v>
+        <v>6136</v>
       </c>
       <c r="C2">
-        <v>20001</v>
+        <v>23261</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2"/>
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>51474806848</v>
+      </c>
       <c r="I2">
-        <v>36295203086</v>
+        <v>51474806848</v>
       </c>
       <c r="J2"/>
       <c r="K2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P2">
+        <v>14.76</v>
+      </c>
+      <c r="Q2">
         <v>2</v>
       </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
         <v>36</v>
-      </c>
-      <c r="T2"/>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>34</v>
       </c>
       <c r="W2" t="s">
         <v>38</v>
       </c>
-      <c r="X2">
-        <v>20</v>
+      <c r="X2" t="s">
+        <v>39</v>
       </c>
       <c r="Y2"/>
       <c r="Z2"/>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2"/>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>1880</v>
+        <v>6136</v>
       </c>
       <c r="C3">
-        <v>20001</v>
+        <v>23261</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3"/>
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>51474806848</v>
+      </c>
       <c r="I3">
-        <v>36295203086</v>
+        <v>51474806848</v>
       </c>
       <c r="J3"/>
       <c r="K3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3">
-        <v>10</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>43</v>
+        <v>935.56</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
       </c>
       <c r="R3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="S3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" t="s">
         <v>44</v>
       </c>
-      <c r="T3"/>
-      <c r="U3" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3"/>
-      <c r="X3"/>
+      <c r="W3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" t="s">
+        <v>39</v>
+      </c>
       <c r="Y3"/>
       <c r="Z3"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3"/>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>1880</v>
+        <v>6136</v>
       </c>
       <c r="C4">
-        <v>20001</v>
+        <v>23261</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>51474806848</v>
+      </c>
+      <c r="I4">
+        <v>51474806848</v>
+      </c>
+      <c r="J4">
+        <v>1285382080</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>755</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4">
+        <v>10.71</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" t="s">
         <v>39</v>
       </c>
-      <c r="H4"/>
-      <c r="I4">
-        <v>36295203086</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4"/>
-      <c r="U4" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" t="s">
-        <v>47</v>
-      </c>
-      <c r="W4"/>
-      <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4"/>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>1880</v>
+        <v>6136</v>
       </c>
       <c r="C5">
-        <v>20001</v>
+        <v>23261</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5"/>
+        <v>32</v>
+      </c>
+      <c r="H5">
+        <v>51474806848</v>
+      </c>
       <c r="I5">
-        <v>36295203086</v>
+        <v>51474806848</v>
       </c>
       <c r="J5"/>
       <c r="K5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>872</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>37</v>
+        <v>27.5</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
       </c>
       <c r="R5" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="S5" t="s">
         <v>37</v>
       </c>
-      <c r="T5"/>
+      <c r="T5" t="s">
+        <v>37</v>
+      </c>
       <c r="U5" t="s">
         <v>37</v>
       </c>
       <c r="V5" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5"/>
-      <c r="X5"/>
+        <v>53</v>
+      </c>
+      <c r="W5" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" t="s">
+        <v>39</v>
+      </c>
       <c r="Y5"/>
       <c r="Z5"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5"/>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>1880</v>
+        <v>6136</v>
       </c>
       <c r="C6">
-        <v>20001</v>
+        <v>23261</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H6"/>
       <c r="I6">
-        <v>36295203086</v>
-      </c>
-      <c r="J6"/>
+        <v>36113675831</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
       <c r="K6">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L6">
-        <v>64</v>
+        <v>763</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P6">
+        <v>5.7</v>
+      </c>
+      <c r="Q6">
         <v>2</v>
       </c>
-      <c r="Q6" t="s">
-        <v>54</v>
-      </c>
       <c r="R6" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6"/>
+        <v>60</v>
+      </c>
+      <c r="T6" t="s">
+        <v>37</v>
+      </c>
       <c r="U6" t="s">
         <v>37</v>
       </c>
       <c r="V6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X6">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="X6" t="s">
+        <v>62</v>
       </c>
       <c r="Y6"/>
       <c r="Z6"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6"/>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7">
-        <v>1880</v>
+        <v>6136</v>
       </c>
       <c r="C7">
-        <v>20001</v>
+        <v>23261</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H7"/>
       <c r="I7">
-        <v>36295203086</v>
+        <v>36113675831</v>
       </c>
       <c r="J7"/>
       <c r="K7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L7">
-        <v>81</v>
+        <v>872</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>60</v>
+        <v>27.5</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
       </c>
       <c r="R7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
-      </c>
-      <c r="T7"/>
+        <v>37</v>
+      </c>
+      <c r="T7" t="s">
+        <v>37</v>
+      </c>
       <c r="U7" t="s">
         <v>37</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="W7" t="s">
-        <v>56</v>
-      </c>
-      <c r="X7">
-        <v>30</v>
+        <v>61</v>
+      </c>
+      <c r="X7" t="s">
+        <v>62</v>
       </c>
       <c r="Y7"/>
       <c r="Z7"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7"/>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>1880</v>
+        <v>6136</v>
       </c>
       <c r="C8">
-        <v>20001</v>
+        <v>23261</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H8"/>
       <c r="I8">
-        <v>33333333333</v>
-      </c>
-      <c r="J8"/>
+        <v>36113675831</v>
+      </c>
+      <c r="J8">
+        <v>586933855</v>
+      </c>
       <c r="K8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>755</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="N8" t="s">
         <v>63</v>
       </c>
       <c r="O8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8">
+        <v>5.7</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S8" t="s">
         <v>64</v>
       </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R8" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" t="s">
-        <v>66</v>
-      </c>
-      <c r="T8"/>
+      <c r="T8" t="s">
+        <v>37</v>
+      </c>
       <c r="U8" t="s">
         <v>37</v>
       </c>
       <c r="V8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="W8" t="s">
-        <v>38</v>
-      </c>
-      <c r="X8">
-        <v>40</v>
+        <v>61</v>
+      </c>
+      <c r="X8" t="s">
+        <v>62</v>
       </c>
       <c r="Y8"/>
       <c r="Z8"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC8"/>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>1880</v>
+        <v>6136</v>
       </c>
       <c r="C9">
-        <v>20001</v>
+        <v>23261</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H9"/>
       <c r="I9">
-        <v>88888888888</v>
+        <v>36113675831</v>
       </c>
       <c r="J9"/>
       <c r="K9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9">
+        <v>182.4</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>66</v>
+      </c>
+      <c r="S9" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" t="s">
+        <v>66</v>
+      </c>
+      <c r="W9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9" t="s">
         <v>62</v>
-      </c>
-      <c r="N9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" t="s">
-        <v>64</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>68</v>
-      </c>
-      <c r="R9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" t="s">
-        <v>69</v>
-      </c>
-      <c r="T9"/>
-      <c r="U9" t="s">
-        <v>37</v>
-      </c>
-      <c r="V9" t="s">
-        <v>68</v>
-      </c>
-      <c r="W9" t="s">
-        <v>38</v>
-      </c>
-      <c r="X9" t="s">
-        <v>70</v>
       </c>
       <c r="Y9"/>
       <c r="Z9"/>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC9"/>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10">
-        <v>1880</v>
+        <v>6136</v>
       </c>
       <c r="C10">
-        <v>20001</v>
+        <v>23261</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="H10"/>
       <c r="I10">
-        <v>88888888888</v>
+        <v>36113675831</v>
       </c>
       <c r="J10"/>
       <c r="K10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="P10">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>72</v>
+        <v>0.0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
       </c>
       <c r="R10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S10" t="s">
-        <v>73</v>
-      </c>
-      <c r="T10"/>
+        <v>37</v>
+      </c>
+      <c r="T10" t="s">
+        <v>37</v>
+      </c>
       <c r="U10" t="s">
         <v>37</v>
       </c>
       <c r="V10" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="W10" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="X10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="Y10"/>
       <c r="Z10"/>
+      <c r="AA10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC10"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>6136</v>
+      </c>
+      <c r="C11">
+        <v>23261</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11">
+        <v>36113675831</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11">
+        <v>27.5</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC11"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>6136</v>
+      </c>
+      <c r="C12">
+        <v>23261</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12">
+        <v>31064296823</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>872</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12">
+        <v>27.5</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s">
+        <v>53</v>
+      </c>
+      <c r="S12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" t="s">
+        <v>68</v>
+      </c>
+      <c r="X12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC12"/>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>6136</v>
+      </c>
+      <c r="C13">
+        <v>23261</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13">
+        <v>26407271843</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>872</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13">
+        <v>27.5</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" t="s">
+        <v>53</v>
+      </c>
+      <c r="W13" t="s">
+        <v>71</v>
+      </c>
+      <c r="X13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC13"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>6136</v>
+      </c>
+      <c r="C14">
+        <v>23261</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14">
+        <v>26407271843</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14">
+        <v>11</v>
+      </c>
+      <c r="L14">
+        <v>885</v>
+      </c>
+      <c r="M14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14">
+        <v>150.0</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s">
+        <v>76</v>
+      </c>
+      <c r="S14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" t="s">
+        <v>76</v>
+      </c>
+      <c r="W14" t="s">
+        <v>71</v>
+      </c>
+      <c r="X14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC14"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>6136</v>
+      </c>
+      <c r="C15">
+        <v>23261</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15">
+        <v>46789586814</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>872</v>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15">
+        <v>27.5</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s">
+        <v>53</v>
+      </c>
+      <c r="S15" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" t="s">
+        <v>53</v>
+      </c>
+      <c r="W15" t="s">
+        <v>71</v>
+      </c>
+      <c r="X15" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC15"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>6136</v>
+      </c>
+      <c r="C16">
+        <v>23261</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16">
+        <v>46789586814</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16">
+        <v>11</v>
+      </c>
+      <c r="L16">
+        <v>885</v>
+      </c>
+      <c r="M16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" t="s">
+        <v>74</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16">
+        <v>150.0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" t="s">
+        <v>37</v>
+      </c>
+      <c r="U16" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s">
+        <v>71</v>
+      </c>
+      <c r="X16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC16"/>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>6136</v>
+      </c>
+      <c r="C17">
+        <v>23261</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17">
+        <v>35133202806</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <v>872</v>
+      </c>
+      <c r="M17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17">
+        <v>27.5</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S17" t="s">
+        <v>37</v>
+      </c>
+      <c r="T17" t="s">
+        <v>37</v>
+      </c>
+      <c r="U17" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" t="s">
+        <v>53</v>
+      </c>
+      <c r="W17" t="s">
+        <v>79</v>
+      </c>
+      <c r="X17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC17"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>6136</v>
+      </c>
+      <c r="C18">
+        <v>23261</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18">
+        <v>35133202806</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18">
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>885</v>
+      </c>
+      <c r="M18" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" t="s">
+        <v>75</v>
+      </c>
+      <c r="P18">
+        <v>150.0</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" t="s">
+        <v>37</v>
+      </c>
+      <c r="T18" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" t="s">
+        <v>76</v>
+      </c>
+      <c r="W18" t="s">
+        <v>79</v>
+      </c>
+      <c r="X18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC18"/>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>6136</v>
+      </c>
+      <c r="C19">
+        <v>23261</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19">
+        <v>31875093800</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19">
+        <v>11</v>
+      </c>
+      <c r="L19">
+        <v>872</v>
+      </c>
+      <c r="M19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
+        <v>51</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19">
+        <v>27.5</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>53</v>
+      </c>
+      <c r="S19" t="s">
+        <v>37</v>
+      </c>
+      <c r="T19" t="s">
+        <v>37</v>
+      </c>
+      <c r="U19" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s">
+        <v>53</v>
+      </c>
+      <c r="W19" t="s">
+        <v>82</v>
+      </c>
+      <c r="X19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC19"/>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>6136</v>
+      </c>
+      <c r="C20">
+        <v>23261</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20">
+        <v>31875093800</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20">
+        <v>11</v>
+      </c>
+      <c r="L20">
+        <v>885</v>
+      </c>
+      <c r="M20" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20" t="s">
+        <v>74</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20">
+        <v>150.0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>76</v>
+      </c>
+      <c r="S20" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20" t="s">
+        <v>37</v>
+      </c>
+      <c r="U20" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20" t="s">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s">
+        <v>82</v>
+      </c>
+      <c r="X20" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC20"/>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>6136</v>
+      </c>
+      <c r="C21">
+        <v>23261</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>29079734870</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21">
+        <v>11</v>
+      </c>
+      <c r="L21">
+        <v>872</v>
+      </c>
+      <c r="M21" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21" t="s">
+        <v>51</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21">
+        <v>27.5</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>53</v>
+      </c>
+      <c r="S21" t="s">
+        <v>37</v>
+      </c>
+      <c r="T21" t="s">
+        <v>37</v>
+      </c>
+      <c r="U21" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" t="s">
+        <v>53</v>
+      </c>
+      <c r="W21" t="s">
+        <v>84</v>
+      </c>
+      <c r="X21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC21"/>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>6136</v>
+      </c>
+      <c r="C22">
+        <v>23261</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>29079734870</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22">
+        <v>11</v>
+      </c>
+      <c r="L22">
+        <v>885</v>
+      </c>
+      <c r="M22" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" t="s">
+        <v>74</v>
+      </c>
+      <c r="O22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P22">
+        <v>150.0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" t="s">
+        <v>37</v>
+      </c>
+      <c r="T22" t="s">
+        <v>37</v>
+      </c>
+      <c r="U22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V22" t="s">
+        <v>76</v>
+      </c>
+      <c r="W22" t="s">
+        <v>84</v>
+      </c>
+      <c r="X22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC22"/>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>6136</v>
+      </c>
+      <c r="C23">
+        <v>23261</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23">
+        <v>54761572809</v>
+      </c>
+      <c r="J23">
+        <v>1268695798</v>
+      </c>
+      <c r="K23">
+        <v>11</v>
+      </c>
+      <c r="L23">
+        <v>755</v>
+      </c>
+      <c r="M23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23">
+        <v>10.71</v>
+      </c>
+      <c r="Q23">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s">
+        <v>48</v>
+      </c>
+      <c r="S23" t="s">
+        <v>49</v>
+      </c>
+      <c r="T23" t="s">
+        <v>37</v>
+      </c>
+      <c r="U23" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" t="s">
+        <v>48</v>
+      </c>
+      <c r="W23" t="s">
+        <v>68</v>
+      </c>
+      <c r="X23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC23"/>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>6136</v>
+      </c>
+      <c r="C24">
+        <v>23261</v>
+      </c>
+      <c r="D24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24">
+        <v>54761572809</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24">
+        <v>11</v>
+      </c>
+      <c r="L24">
+        <v>872</v>
+      </c>
+      <c r="M24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" t="s">
+        <v>86</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24">
+        <v>27.5</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>53</v>
+      </c>
+      <c r="S24" t="s">
+        <v>37</v>
+      </c>
+      <c r="T24" t="s">
+        <v>37</v>
+      </c>
+      <c r="U24" t="s">
+        <v>37</v>
+      </c>
+      <c r="V24" t="s">
+        <v>53</v>
+      </c>
+      <c r="W24" t="s">
+        <v>68</v>
+      </c>
+      <c r="X24" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC24"/>
+    </row>
+    <row r="25" spans="1:29">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>6136</v>
+      </c>
+      <c r="C25">
+        <v>23261</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25">
+        <v>54761572809</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25">
+        <v>11</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25">
+        <v>27.5</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S25" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" t="s">
+        <v>37</v>
+      </c>
+      <c r="U25" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" t="s">
+        <v>53</v>
+      </c>
+      <c r="W25" t="s">
+        <v>68</v>
+      </c>
+      <c r="X25" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC25"/>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>6136</v>
+      </c>
+      <c r="C26">
+        <v>23261</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>28152854875</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26">
+        <v>11</v>
+      </c>
+      <c r="L26">
+        <v>872</v>
+      </c>
+      <c r="M26" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26" t="s">
+        <v>51</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26">
+        <v>27.5</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>53</v>
+      </c>
+      <c r="S26" t="s">
+        <v>37</v>
+      </c>
+      <c r="T26" t="s">
+        <v>37</v>
+      </c>
+      <c r="U26" t="s">
+        <v>37</v>
+      </c>
+      <c r="V26" t="s">
+        <v>53</v>
+      </c>
+      <c r="W26" t="s">
+        <v>88</v>
+      </c>
+      <c r="X26" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC26"/>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>6136</v>
+      </c>
+      <c r="C27">
+        <v>23261</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27">
+        <v>46720911805</v>
+      </c>
+      <c r="J27">
+        <v>1234697439</v>
+      </c>
+      <c r="K27">
+        <v>11</v>
+      </c>
+      <c r="L27">
+        <v>755</v>
+      </c>
+      <c r="M27" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" t="s">
+        <v>90</v>
+      </c>
+      <c r="O27" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27">
+        <v>5.7</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27" t="s">
+        <v>59</v>
+      </c>
+      <c r="S27" t="s">
+        <v>64</v>
+      </c>
+      <c r="T27" t="s">
+        <v>37</v>
+      </c>
+      <c r="U27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V27" t="s">
+        <v>59</v>
+      </c>
+      <c r="W27" t="s">
+        <v>82</v>
+      </c>
+      <c r="X27" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC27"/>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>6136</v>
+      </c>
+      <c r="C28">
+        <v>23261</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28">
+        <v>46720911805</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28">
+        <v>11</v>
+      </c>
+      <c r="L28">
+        <v>872</v>
+      </c>
+      <c r="M28" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" t="s">
+        <v>51</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28">
+        <v>27.5</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
+        <v>53</v>
+      </c>
+      <c r="S28" t="s">
+        <v>37</v>
+      </c>
+      <c r="T28" t="s">
+        <v>37</v>
+      </c>
+      <c r="U28" t="s">
+        <v>37</v>
+      </c>
+      <c r="V28" t="s">
+        <v>53</v>
+      </c>
+      <c r="W28" t="s">
+        <v>82</v>
+      </c>
+      <c r="X28" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC28"/>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6136</v>
+      </c>
+      <c r="C29">
+        <v>23261</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29">
+        <v>50678679819</v>
+      </c>
+      <c r="I29">
+        <v>50678679819</v>
+      </c>
+      <c r="J29">
+        <v>1273657949</v>
+      </c>
+      <c r="K29">
+        <v>11</v>
+      </c>
+      <c r="L29">
+        <v>755</v>
+      </c>
+      <c r="M29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" t="s">
+        <v>46</v>
+      </c>
+      <c r="O29" t="s">
+        <v>47</v>
+      </c>
+      <c r="P29">
+        <v>10.71</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29" t="s">
+        <v>48</v>
+      </c>
+      <c r="S29" t="s">
+        <v>49</v>
+      </c>
+      <c r="T29" t="s">
+        <v>37</v>
+      </c>
+      <c r="U29" t="s">
+        <v>37</v>
+      </c>
+      <c r="V29" t="s">
+        <v>48</v>
+      </c>
+      <c r="W29" t="s">
+        <v>92</v>
+      </c>
+      <c r="X29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC29"/>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>6136</v>
+      </c>
+      <c r="C30">
+        <v>23261</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30">
+        <v>50678679819</v>
+      </c>
+      <c r="I30">
+        <v>50678679819</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30">
+        <v>11</v>
+      </c>
+      <c r="L30">
+        <v>872</v>
+      </c>
+      <c r="M30" t="s">
+        <v>50</v>
+      </c>
+      <c r="N30" t="s">
+        <v>51</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30">
+        <v>27.5</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s">
+        <v>53</v>
+      </c>
+      <c r="S30" t="s">
+        <v>37</v>
+      </c>
+      <c r="T30" t="s">
+        <v>37</v>
+      </c>
+      <c r="U30" t="s">
+        <v>37</v>
+      </c>
+      <c r="V30" t="s">
+        <v>53</v>
+      </c>
+      <c r="W30" t="s">
+        <v>92</v>
+      </c>
+      <c r="X30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC30"/>
+    </row>
+    <row r="31" spans="1:29">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>6136</v>
+      </c>
+      <c r="C31">
+        <v>23261</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31">
+        <v>50678679819</v>
+      </c>
+      <c r="I31">
+        <v>50678679819</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31">
+        <v>11</v>
+      </c>
+      <c r="L31">
+        <v>872</v>
+      </c>
+      <c r="M31" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" t="s">
+        <v>86</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31">
+        <v>27.5</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>53</v>
+      </c>
+      <c r="S31" t="s">
+        <v>37</v>
+      </c>
+      <c r="T31" t="s">
+        <v>37</v>
+      </c>
+      <c r="U31" t="s">
+        <v>37</v>
+      </c>
+      <c r="V31" t="s">
+        <v>53</v>
+      </c>
+      <c r="W31" t="s">
+        <v>92</v>
+      </c>
+      <c r="X31" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC31"/>
+    </row>
+    <row r="32" spans="1:29">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>6136</v>
+      </c>
+      <c r="C32">
+        <v>23261</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32">
+        <v>37756928865</v>
+      </c>
+      <c r="I32">
+        <v>37756928865</v>
+      </c>
+      <c r="J32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32">
+        <v>11</v>
+      </c>
+      <c r="L32">
+        <v>763</v>
+      </c>
+      <c r="M32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" t="s">
+        <v>57</v>
+      </c>
+      <c r="O32" t="s">
+        <v>95</v>
+      </c>
+      <c r="P32">
+        <v>0.01</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32" t="s">
+        <v>96</v>
+      </c>
+      <c r="S32" t="s">
+        <v>97</v>
+      </c>
+      <c r="T32" t="s">
+        <v>37</v>
+      </c>
+      <c r="U32" t="s">
+        <v>37</v>
+      </c>
+      <c r="V32" t="s">
+        <v>96</v>
+      </c>
+      <c r="W32" t="s">
+        <v>61</v>
+      </c>
+      <c r="X32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC32"/>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>6136</v>
+      </c>
+      <c r="C33">
+        <v>23261</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33">
+        <v>37756928865</v>
+      </c>
+      <c r="I33">
+        <v>37756928865</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33">
+        <v>11</v>
+      </c>
+      <c r="L33">
+        <v>746</v>
+      </c>
+      <c r="M33" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" t="s">
+        <v>99</v>
+      </c>
+      <c r="O33" t="s">
+        <v>100</v>
+      </c>
+      <c r="P33">
+        <v>7.0</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+      <c r="R33" t="s">
+        <v>101</v>
+      </c>
+      <c r="S33" t="s">
+        <v>102</v>
+      </c>
+      <c r="T33" t="s">
+        <v>37</v>
+      </c>
+      <c r="U33" t="s">
+        <v>37</v>
+      </c>
+      <c r="V33" t="s">
+        <v>101</v>
+      </c>
+      <c r="W33" t="s">
+        <v>61</v>
+      </c>
+      <c r="X33" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC33"/>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34">
+        <v>6136</v>
+      </c>
+      <c r="C34">
+        <v>23261</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34">
+        <v>37756928865</v>
+      </c>
+      <c r="I34">
+        <v>37756928865</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34">
+        <v>11</v>
+      </c>
+      <c r="L34">
+        <v>763</v>
+      </c>
+      <c r="M34" t="s">
+        <v>56</v>
+      </c>
+      <c r="N34" t="s">
+        <v>57</v>
+      </c>
+      <c r="O34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34">
+        <v>5.7</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34" t="s">
+        <v>59</v>
+      </c>
+      <c r="S34" t="s">
+        <v>60</v>
+      </c>
+      <c r="T34" t="s">
+        <v>37</v>
+      </c>
+      <c r="U34" t="s">
+        <v>37</v>
+      </c>
+      <c r="V34" t="s">
+        <v>59</v>
+      </c>
+      <c r="W34" t="s">
+        <v>61</v>
+      </c>
+      <c r="X34" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC34"/>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <v>6136</v>
+      </c>
+      <c r="C35">
+        <v>23261</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35">
+        <v>37756928865</v>
+      </c>
+      <c r="I35">
+        <v>37756928865</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35">
+        <v>11</v>
+      </c>
+      <c r="L35">
+        <v>872</v>
+      </c>
+      <c r="M35" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" t="s">
+        <v>51</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35">
+        <v>27.5</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
+        <v>53</v>
+      </c>
+      <c r="S35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T35" t="s">
+        <v>37</v>
+      </c>
+      <c r="U35" t="s">
+        <v>37</v>
+      </c>
+      <c r="V35" t="s">
+        <v>53</v>
+      </c>
+      <c r="W35" t="s">
+        <v>61</v>
+      </c>
+      <c r="X35" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC35"/>
+    </row>
+    <row r="36" spans="1:29">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>6136</v>
+      </c>
+      <c r="C36">
+        <v>23261</v>
+      </c>
+      <c r="D36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36">
+        <v>37756928865</v>
+      </c>
+      <c r="I36">
+        <v>37756928865</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36">
+        <v>11</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N36" t="s">
+        <v>42</v>
+      </c>
+      <c r="O36" t="s">
+        <v>103</v>
+      </c>
+      <c r="P36">
+        <v>516.2</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s">
+        <v>104</v>
+      </c>
+      <c r="S36" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36" t="s">
+        <v>37</v>
+      </c>
+      <c r="U36" t="s">
+        <v>37</v>
+      </c>
+      <c r="V36" t="s">
+        <v>104</v>
+      </c>
+      <c r="W36" t="s">
+        <v>61</v>
+      </c>
+      <c r="X36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC36"/>
+    </row>
+    <row r="37" spans="1:29">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37">
+        <v>6136</v>
+      </c>
+      <c r="C37">
+        <v>23261</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37">
+        <v>11</v>
+      </c>
+      <c r="L37">
+        <v>885</v>
+      </c>
+      <c r="M37" t="s">
+        <v>73</v>
+      </c>
+      <c r="N37" t="s">
+        <v>74</v>
+      </c>
+      <c r="O37" t="s">
+        <v>75</v>
+      </c>
+      <c r="P37">
+        <v>150.0</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>76</v>
+      </c>
+      <c r="S37" t="s">
+        <v>37</v>
+      </c>
+      <c r="T37" t="s">
+        <v>37</v>
+      </c>
+      <c r="U37" t="s">
+        <v>37</v>
+      </c>
+      <c r="V37" t="s">
+        <v>76</v>
+      </c>
+      <c r="W37" t="s">
+        <v>84</v>
+      </c>
+      <c r="X37" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC37"/>
+    </row>
+    <row r="38" spans="1:29">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38">
+        <v>6136</v>
+      </c>
+      <c r="C38">
+        <v>23261</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>106</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38">
+        <v>11</v>
+      </c>
+      <c r="L38">
+        <v>872</v>
+      </c>
+      <c r="M38" t="s">
+        <v>50</v>
+      </c>
+      <c r="N38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38">
+        <v>27.5</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>53</v>
+      </c>
+      <c r="S38" t="s">
+        <v>37</v>
+      </c>
+      <c r="T38" t="s">
+        <v>37</v>
+      </c>
+      <c r="U38" t="s">
+        <v>37</v>
+      </c>
+      <c r="V38" t="s">
+        <v>53</v>
+      </c>
+      <c r="W38" t="s">
+        <v>84</v>
+      </c>
+      <c r="X38" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC38"/>
+    </row>
+    <row r="39" spans="1:29">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39">
+        <v>6136</v>
+      </c>
+      <c r="C39">
+        <v>23261</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39">
+        <v>36295203086</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39">
+        <v>11</v>
+      </c>
+      <c r="L39">
+        <v>755</v>
+      </c>
+      <c r="M39" t="s">
+        <v>45</v>
+      </c>
+      <c r="N39" t="s">
+        <v>109</v>
+      </c>
+      <c r="O39" t="s">
+        <v>110</v>
+      </c>
+      <c r="P39">
+        <v>5.49</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s">
+        <v>111</v>
+      </c>
+      <c r="S39" t="s">
+        <v>112</v>
+      </c>
+      <c r="T39" t="s">
+        <v>37</v>
+      </c>
+      <c r="U39" t="s">
+        <v>37</v>
+      </c>
+      <c r="V39" t="s">
+        <v>111</v>
+      </c>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC39"/>
+    </row>
+    <row r="40" spans="1:29">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>6136</v>
+      </c>
+      <c r="C40">
+        <v>23261</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40">
+        <v>36295203086</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40">
+        <v>11</v>
+      </c>
+      <c r="L40">
+        <v>549</v>
+      </c>
+      <c r="M40" t="s">
+        <v>113</v>
+      </c>
+      <c r="N40" t="s">
+        <v>114</v>
+      </c>
+      <c r="O40" t="s">
+        <v>115</v>
+      </c>
+      <c r="P40">
+        <v>20.9</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+      <c r="R40" t="s">
+        <v>116</v>
+      </c>
+      <c r="S40" t="s">
+        <v>37</v>
+      </c>
+      <c r="T40" t="s">
+        <v>37</v>
+      </c>
+      <c r="U40" t="s">
+        <v>37</v>
+      </c>
+      <c r="V40" t="s">
+        <v>116</v>
+      </c>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC40"/>
+    </row>
+    <row r="41" spans="1:29">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41">
+        <v>6136</v>
+      </c>
+      <c r="C41">
+        <v>23261</v>
+      </c>
+      <c r="D41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" t="s">
+        <v>117</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41">
+        <v>34398753850</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41">
+        <v>11</v>
+      </c>
+      <c r="L41">
+        <v>755</v>
+      </c>
+      <c r="M41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N41" t="s">
+        <v>109</v>
+      </c>
+      <c r="O41" t="s">
+        <v>118</v>
+      </c>
+      <c r="P41">
+        <v>5.49</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41" t="s">
+        <v>119</v>
+      </c>
+      <c r="S41" t="s">
+        <v>120</v>
+      </c>
+      <c r="T41" t="s">
+        <v>37</v>
+      </c>
+      <c r="U41" t="s">
+        <v>37</v>
+      </c>
+      <c r="V41" t="s">
+        <v>119</v>
+      </c>
+      <c r="W41" t="s">
+        <v>79</v>
+      </c>
+      <c r="X41" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC41"/>
+    </row>
+    <row r="42" spans="1:29">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <v>6136</v>
+      </c>
+      <c r="C42">
+        <v>23261</v>
+      </c>
+      <c r="D42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42">
+        <v>34398753850</v>
+      </c>
+      <c r="J42"/>
+      <c r="K42">
+        <v>11</v>
+      </c>
+      <c r="L42">
+        <v>872</v>
+      </c>
+      <c r="M42" t="s">
+        <v>50</v>
+      </c>
+      <c r="N42" t="s">
+        <v>51</v>
+      </c>
+      <c r="O42" t="s">
+        <v>121</v>
+      </c>
+      <c r="P42">
+        <v>27.5</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+      <c r="R42" t="s">
+        <v>122</v>
+      </c>
+      <c r="S42" t="s">
+        <v>37</v>
+      </c>
+      <c r="T42" t="s">
+        <v>37</v>
+      </c>
+      <c r="U42" t="s">
+        <v>37</v>
+      </c>
+      <c r="V42" t="s">
+        <v>122</v>
+      </c>
+      <c r="W42" t="s">
+        <v>79</v>
+      </c>
+      <c r="X42" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC42"/>
+    </row>
+    <row r="43" spans="1:29">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43">
+        <v>6136</v>
+      </c>
+      <c r="C43">
+        <v>23261</v>
+      </c>
+      <c r="D43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43">
+        <v>34398753850</v>
+      </c>
+      <c r="J43"/>
+      <c r="K43">
+        <v>11</v>
+      </c>
+      <c r="L43">
+        <v>872</v>
+      </c>
+      <c r="M43" t="s">
+        <v>50</v>
+      </c>
+      <c r="N43" t="s">
+        <v>51</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43">
+        <v>27.5</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s">
+        <v>53</v>
+      </c>
+      <c r="S43" t="s">
+        <v>37</v>
+      </c>
+      <c r="T43" t="s">
+        <v>37</v>
+      </c>
+      <c r="U43" t="s">
+        <v>37</v>
+      </c>
+      <c r="V43" t="s">
+        <v>53</v>
+      </c>
+      <c r="W43" t="s">
+        <v>79</v>
+      </c>
+      <c r="X43" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC43"/>
+    </row>
+    <row r="44" spans="1:29">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44">
+        <v>6136</v>
+      </c>
+      <c r="C44">
+        <v>23261</v>
+      </c>
+      <c r="D44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
+        <v>117</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44">
+        <v>34398753850</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44">
+        <v>11</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>41</v>
+      </c>
+      <c r="N44" t="s">
+        <v>42</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44">
+        <v>27.5</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44" t="s">
+        <v>53</v>
+      </c>
+      <c r="S44" t="s">
+        <v>37</v>
+      </c>
+      <c r="T44" t="s">
+        <v>37</v>
+      </c>
+      <c r="U44" t="s">
+        <v>37</v>
+      </c>
+      <c r="V44" t="s">
+        <v>53</v>
+      </c>
+      <c r="W44" t="s">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC44"/>
+    </row>
+    <row r="45" spans="1:29">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45">
+        <v>6136</v>
+      </c>
+      <c r="C45">
+        <v>23261</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" t="s">
+        <v>117</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45">
+        <v>34398753850</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45">
+        <v>11</v>
+      </c>
+      <c r="L45">
+        <v>885</v>
+      </c>
+      <c r="M45" t="s">
+        <v>73</v>
+      </c>
+      <c r="N45" t="s">
+        <v>74</v>
+      </c>
+      <c r="O45" t="s">
+        <v>75</v>
+      </c>
+      <c r="P45">
+        <v>150.0</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45" t="s">
+        <v>76</v>
+      </c>
+      <c r="S45" t="s">
+        <v>37</v>
+      </c>
+      <c r="T45" t="s">
+        <v>37</v>
+      </c>
+      <c r="U45" t="s">
+        <v>37</v>
+      </c>
+      <c r="V45" t="s">
+        <v>76</v>
+      </c>
+      <c r="W45" t="s">
+        <v>79</v>
+      </c>
+      <c r="X45" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC45"/>
+    </row>
+    <row r="46" spans="1:29">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46">
+        <v>6136</v>
+      </c>
+      <c r="C46">
+        <v>23261</v>
+      </c>
+      <c r="D46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>33577856840</v>
+      </c>
+      <c r="J46">
+        <v>1243950109</v>
+      </c>
+      <c r="K46">
+        <v>11</v>
+      </c>
+      <c r="L46">
+        <v>755</v>
+      </c>
+      <c r="M46" t="s">
+        <v>45</v>
+      </c>
+      <c r="N46" t="s">
+        <v>46</v>
+      </c>
+      <c r="O46" t="s">
+        <v>47</v>
+      </c>
+      <c r="P46">
+        <v>10.71</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+      <c r="R46" t="s">
+        <v>48</v>
+      </c>
+      <c r="S46" t="s">
+        <v>49</v>
+      </c>
+      <c r="T46" t="s">
+        <v>37</v>
+      </c>
+      <c r="U46" t="s">
+        <v>37</v>
+      </c>
+      <c r="V46" t="s">
+        <v>48</v>
+      </c>
+      <c r="W46" t="s">
+        <v>61</v>
+      </c>
+      <c r="X46" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC46"/>
+    </row>
+    <row r="47" spans="1:29">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47">
+        <v>6136</v>
+      </c>
+      <c r="C47">
+        <v>23261</v>
+      </c>
+      <c r="D47" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>33577856840</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47">
+        <v>11</v>
+      </c>
+      <c r="L47">
+        <v>872</v>
+      </c>
+      <c r="M47" t="s">
+        <v>50</v>
+      </c>
+      <c r="N47" t="s">
+        <v>86</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47">
+        <v>27.5</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47" t="s">
+        <v>53</v>
+      </c>
+      <c r="S47" t="s">
+        <v>37</v>
+      </c>
+      <c r="T47" t="s">
+        <v>37</v>
+      </c>
+      <c r="U47" t="s">
+        <v>37</v>
+      </c>
+      <c r="V47" t="s">
+        <v>53</v>
+      </c>
+      <c r="W47" t="s">
+        <v>61</v>
+      </c>
+      <c r="X47" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC47"/>
+    </row>
+    <row r="48" spans="1:29">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48">
+        <v>6136</v>
+      </c>
+      <c r="C48">
+        <v>23261</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" t="s">
+        <v>123</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>33577856840</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48">
+        <v>11</v>
+      </c>
+      <c r="L48">
+        <v>872</v>
+      </c>
+      <c r="M48" t="s">
+        <v>50</v>
+      </c>
+      <c r="N48" t="s">
+        <v>51</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48">
+        <v>27.5</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="R48" t="s">
+        <v>53</v>
+      </c>
+      <c r="S48" t="s">
+        <v>37</v>
+      </c>
+      <c r="T48" t="s">
+        <v>37</v>
+      </c>
+      <c r="U48" t="s">
+        <v>37</v>
+      </c>
+      <c r="V48" t="s">
+        <v>53</v>
+      </c>
+      <c r="W48" t="s">
+        <v>61</v>
+      </c>
+      <c r="X48" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC48"/>
+    </row>
+    <row r="49" spans="1:29">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49">
+        <v>6136</v>
+      </c>
+      <c r="C49">
+        <v>23261</v>
+      </c>
+      <c r="D49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" t="s">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49"/>
+      <c r="I49">
+        <v>36347749831</v>
+      </c>
+      <c r="J49">
+        <v>850271417</v>
+      </c>
+      <c r="K49">
+        <v>11</v>
+      </c>
+      <c r="L49">
+        <v>755</v>
+      </c>
+      <c r="M49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N49" t="s">
+        <v>46</v>
+      </c>
+      <c r="O49" t="s">
+        <v>47</v>
+      </c>
+      <c r="P49">
+        <v>10.71</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="R49" t="s">
+        <v>48</v>
+      </c>
+      <c r="S49" t="s">
+        <v>49</v>
+      </c>
+      <c r="T49" t="s">
+        <v>37</v>
+      </c>
+      <c r="U49" t="s">
+        <v>37</v>
+      </c>
+      <c r="V49" t="s">
+        <v>48</v>
+      </c>
+      <c r="W49" t="s">
+        <v>38</v>
+      </c>
+      <c r="X49" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC49"/>
+    </row>
+    <row r="50" spans="1:29">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>6136</v>
+      </c>
+      <c r="C50">
+        <v>23261</v>
+      </c>
+      <c r="D50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50"/>
+      <c r="I50">
+        <v>36347749831</v>
+      </c>
+      <c r="J50"/>
+      <c r="K50">
+        <v>11</v>
+      </c>
+      <c r="L50">
+        <v>872</v>
+      </c>
+      <c r="M50" t="s">
+        <v>50</v>
+      </c>
+      <c r="N50" t="s">
+        <v>86</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50">
+        <v>27.5</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50" t="s">
+        <v>53</v>
+      </c>
+      <c r="S50" t="s">
+        <v>37</v>
+      </c>
+      <c r="T50" t="s">
+        <v>37</v>
+      </c>
+      <c r="U50" t="s">
+        <v>37</v>
+      </c>
+      <c r="V50" t="s">
+        <v>53</v>
+      </c>
+      <c r="W50" t="s">
+        <v>38</v>
+      </c>
+      <c r="X50" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC50"/>
+    </row>
+    <row r="51" spans="1:29">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51">
+        <v>6136</v>
+      </c>
+      <c r="C51">
+        <v>23261</v>
+      </c>
+      <c r="D51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51"/>
+      <c r="I51">
+        <v>36347749831</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51">
+        <v>11</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51" t="s">
+        <v>41</v>
+      </c>
+      <c r="N51" t="s">
+        <v>42</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51">
+        <v>27.5</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+      <c r="R51" t="s">
+        <v>53</v>
+      </c>
+      <c r="S51" t="s">
+        <v>37</v>
+      </c>
+      <c r="T51" t="s">
+        <v>37</v>
+      </c>
+      <c r="U51" t="s">
+        <v>37</v>
+      </c>
+      <c r="V51" t="s">
+        <v>53</v>
+      </c>
+      <c r="W51" t="s">
+        <v>38</v>
+      </c>
+      <c r="X51" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC51"/>
+    </row>
+    <row r="52" spans="1:29">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52">
+        <v>6136</v>
+      </c>
+      <c r="C52">
+        <v>23261</v>
+      </c>
+      <c r="D52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52"/>
+      <c r="I52">
+        <v>15462828748</v>
+      </c>
+      <c r="J52">
+        <v>1269842407</v>
+      </c>
+      <c r="K52">
+        <v>11</v>
+      </c>
+      <c r="L52">
+        <v>755</v>
+      </c>
+      <c r="M52" t="s">
+        <v>45</v>
+      </c>
+      <c r="N52" t="s">
+        <v>90</v>
+      </c>
+      <c r="O52" t="s">
+        <v>58</v>
+      </c>
+      <c r="P52">
+        <v>5.7</v>
+      </c>
+      <c r="Q52">
+        <v>2</v>
+      </c>
+      <c r="R52" t="s">
+        <v>59</v>
+      </c>
+      <c r="S52" t="s">
+        <v>64</v>
+      </c>
+      <c r="T52" t="s">
+        <v>37</v>
+      </c>
+      <c r="U52" t="s">
+        <v>37</v>
+      </c>
+      <c r="V52" t="s">
+        <v>59</v>
+      </c>
+      <c r="W52" t="s">
+        <v>126</v>
+      </c>
+      <c r="X52" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC52"/>
+    </row>
+    <row r="53" spans="1:29">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53">
+        <v>6136</v>
+      </c>
+      <c r="C53">
+        <v>23261</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53"/>
+      <c r="I53">
+        <v>15462828748</v>
+      </c>
+      <c r="J53"/>
+      <c r="K53">
+        <v>11</v>
+      </c>
+      <c r="L53">
+        <v>872</v>
+      </c>
+      <c r="M53" t="s">
+        <v>50</v>
+      </c>
+      <c r="N53" t="s">
+        <v>51</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53">
+        <v>27.5</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53" t="s">
+        <v>53</v>
+      </c>
+      <c r="S53" t="s">
+        <v>37</v>
+      </c>
+      <c r="T53" t="s">
+        <v>37</v>
+      </c>
+      <c r="U53" t="s">
+        <v>37</v>
+      </c>
+      <c r="V53" t="s">
+        <v>53</v>
+      </c>
+      <c r="W53" t="s">
+        <v>126</v>
+      </c>
+      <c r="X53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC53"/>
+    </row>
+    <row r="54" spans="1:29">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54">
+        <v>6136</v>
+      </c>
+      <c r="C54">
+        <v>23261</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54"/>
+      <c r="I54">
+        <v>36442191842</v>
+      </c>
+      <c r="J54">
+        <v>806442659</v>
+      </c>
+      <c r="K54">
+        <v>11</v>
+      </c>
+      <c r="L54">
+        <v>755</v>
+      </c>
+      <c r="M54" t="s">
+        <v>45</v>
+      </c>
+      <c r="N54" t="s">
+        <v>46</v>
+      </c>
+      <c r="O54" t="s">
+        <v>47</v>
+      </c>
+      <c r="P54">
+        <v>10.71</v>
+      </c>
+      <c r="Q54">
+        <v>2</v>
+      </c>
+      <c r="R54" t="s">
+        <v>48</v>
+      </c>
+      <c r="S54" t="s">
+        <v>49</v>
+      </c>
+      <c r="T54" t="s">
+        <v>37</v>
+      </c>
+      <c r="U54" t="s">
+        <v>37</v>
+      </c>
+      <c r="V54" t="s">
+        <v>48</v>
+      </c>
+      <c r="W54" t="s">
+        <v>79</v>
+      </c>
+      <c r="X54" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC54"/>
+    </row>
+    <row r="55" spans="1:29">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55">
+        <v>6136</v>
+      </c>
+      <c r="C55">
+        <v>23261</v>
+      </c>
+      <c r="D55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55"/>
+      <c r="I55">
+        <v>36442191842</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55">
+        <v>11</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55" t="s">
+        <v>41</v>
+      </c>
+      <c r="N55" t="s">
+        <v>42</v>
+      </c>
+      <c r="O55" t="s">
+        <v>128</v>
+      </c>
+      <c r="P55">
+        <v>140.68</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+      <c r="R55" t="s">
+        <v>129</v>
+      </c>
+      <c r="S55" t="s">
+        <v>37</v>
+      </c>
+      <c r="T55" t="s">
+        <v>37</v>
+      </c>
+      <c r="U55" t="s">
+        <v>37</v>
+      </c>
+      <c r="V55" t="s">
+        <v>129</v>
+      </c>
+      <c r="W55" t="s">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC55"/>
+    </row>
+    <row r="56" spans="1:29">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56">
+        <v>6136</v>
+      </c>
+      <c r="C56">
+        <v>23261</v>
+      </c>
+      <c r="D56" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>127</v>
+      </c>
+      <c r="H56"/>
+      <c r="I56">
+        <v>36442191842</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56">
+        <v>11</v>
+      </c>
+      <c r="L56">
+        <v>872</v>
+      </c>
+      <c r="M56" t="s">
+        <v>50</v>
+      </c>
+      <c r="N56" t="s">
+        <v>51</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56">
+        <v>27.5</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56" t="s">
+        <v>53</v>
+      </c>
+      <c r="S56" t="s">
+        <v>37</v>
+      </c>
+      <c r="T56" t="s">
+        <v>37</v>
+      </c>
+      <c r="U56" t="s">
+        <v>37</v>
+      </c>
+      <c r="V56" t="s">
+        <v>53</v>
+      </c>
+      <c r="W56" t="s">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC56"/>
+    </row>
+    <row r="57" spans="1:29">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57">
+        <v>6136</v>
+      </c>
+      <c r="C57">
+        <v>23261</v>
+      </c>
+      <c r="D57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" t="s">
+        <v>127</v>
+      </c>
+      <c r="H57"/>
+      <c r="I57">
+        <v>36442191842</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57">
+        <v>11</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
+        <v>41</v>
+      </c>
+      <c r="N57" t="s">
+        <v>42</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57">
+        <v>27.5</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57" t="s">
+        <v>53</v>
+      </c>
+      <c r="S57" t="s">
+        <v>37</v>
+      </c>
+      <c r="T57" t="s">
+        <v>37</v>
+      </c>
+      <c r="U57" t="s">
+        <v>37</v>
+      </c>
+      <c r="V57" t="s">
+        <v>53</v>
+      </c>
+      <c r="W57" t="s">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC57"/>
+    </row>
+    <row r="58" spans="1:29">
+      <c r="A58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58">
+        <v>6136</v>
+      </c>
+      <c r="C58">
+        <v>23261</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58"/>
+      <c r="I58">
+        <v>49506565899</v>
+      </c>
+      <c r="J58" t="s">
+        <v>131</v>
+      </c>
+      <c r="K58">
+        <v>11</v>
+      </c>
+      <c r="L58">
+        <v>514</v>
+      </c>
+      <c r="M58" t="s">
+        <v>132</v>
+      </c>
+      <c r="N58" t="s">
+        <v>133</v>
+      </c>
+      <c r="O58" t="s">
+        <v>134</v>
+      </c>
+      <c r="P58">
+        <v>7.25</v>
+      </c>
+      <c r="Q58">
+        <v>2</v>
+      </c>
+      <c r="R58" t="s">
+        <v>135</v>
+      </c>
+      <c r="S58" t="s">
+        <v>136</v>
+      </c>
+      <c r="T58" t="s">
+        <v>37</v>
+      </c>
+      <c r="U58" t="s">
+        <v>37</v>
+      </c>
+      <c r="V58" t="s">
+        <v>135</v>
+      </c>
+      <c r="W58" t="s">
+        <v>38</v>
+      </c>
+      <c r="X58" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC58"/>
+    </row>
+    <row r="59" spans="1:29">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59">
+        <v>6136</v>
+      </c>
+      <c r="C59">
+        <v>23261</v>
+      </c>
+      <c r="D59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59"/>
+      <c r="I59">
+        <v>49506565899</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59">
+        <v>11</v>
+      </c>
+      <c r="L59">
+        <v>872</v>
+      </c>
+      <c r="M59" t="s">
+        <v>50</v>
+      </c>
+      <c r="N59" t="s">
+        <v>51</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59">
+        <v>27.5</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+      <c r="R59" t="s">
+        <v>53</v>
+      </c>
+      <c r="S59" t="s">
+        <v>37</v>
+      </c>
+      <c r="T59" t="s">
+        <v>37</v>
+      </c>
+      <c r="U59" t="s">
+        <v>37</v>
+      </c>
+      <c r="V59" t="s">
+        <v>53</v>
+      </c>
+      <c r="W59" t="s">
+        <v>38</v>
+      </c>
+      <c r="X59" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC59"/>
+    </row>
+    <row r="60" spans="1:29">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60">
+        <v>6136</v>
+      </c>
+      <c r="C60">
+        <v>23261</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60"/>
+      <c r="I60">
+        <v>49506565899</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60">
+        <v>11</v>
+      </c>
+      <c r="L60">
+        <v>763</v>
+      </c>
+      <c r="M60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N60" t="s">
+        <v>57</v>
+      </c>
+      <c r="O60" t="s">
+        <v>118</v>
+      </c>
+      <c r="P60">
+        <v>5.49</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+      <c r="R60" t="s">
+        <v>119</v>
+      </c>
+      <c r="S60" t="s">
+        <v>137</v>
+      </c>
+      <c r="T60" t="s">
+        <v>37</v>
+      </c>
+      <c r="U60" t="s">
+        <v>37</v>
+      </c>
+      <c r="V60" t="s">
+        <v>119</v>
+      </c>
+      <c r="W60" t="s">
+        <v>38</v>
+      </c>
+      <c r="X60" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC60"/>
+    </row>
+    <row r="61" spans="1:29">
+      <c r="A61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61">
+        <v>6136</v>
+      </c>
+      <c r="C61">
+        <v>23261</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" t="s">
+        <v>130</v>
+      </c>
+      <c r="H61"/>
+      <c r="I61">
+        <v>49506565899</v>
+      </c>
+      <c r="J61"/>
+      <c r="K61">
+        <v>11</v>
+      </c>
+      <c r="L61">
+        <v>763</v>
+      </c>
+      <c r="M61" t="s">
+        <v>56</v>
+      </c>
+      <c r="N61" t="s">
+        <v>57</v>
+      </c>
+      <c r="O61" t="s">
+        <v>138</v>
+      </c>
+      <c r="P61">
+        <v>5.7</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+      <c r="R61" t="s">
+        <v>139</v>
+      </c>
+      <c r="S61" t="s">
+        <v>140</v>
+      </c>
+      <c r="T61" t="s">
+        <v>37</v>
+      </c>
+      <c r="U61" t="s">
+        <v>37</v>
+      </c>
+      <c r="V61" t="s">
+        <v>139</v>
+      </c>
+      <c r="W61" t="s">
+        <v>38</v>
+      </c>
+      <c r="X61" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC61"/>
+    </row>
+    <row r="62" spans="1:29">
+      <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>6136</v>
+      </c>
+      <c r="C62">
+        <v>23261</v>
+      </c>
+      <c r="D62" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" t="s">
+        <v>130</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62">
+        <v>49506565899</v>
+      </c>
+      <c r="J62"/>
+      <c r="K62">
+        <v>11</v>
+      </c>
+      <c r="L62">
+        <v>763</v>
+      </c>
+      <c r="M62" t="s">
+        <v>56</v>
+      </c>
+      <c r="N62" t="s">
+        <v>57</v>
+      </c>
+      <c r="O62" t="s">
+        <v>58</v>
+      </c>
+      <c r="P62">
+        <v>5.7</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+      <c r="R62" t="s">
+        <v>59</v>
+      </c>
+      <c r="S62" t="s">
+        <v>60</v>
+      </c>
+      <c r="T62" t="s">
+        <v>37</v>
+      </c>
+      <c r="U62" t="s">
+        <v>37</v>
+      </c>
+      <c r="V62" t="s">
+        <v>59</v>
+      </c>
+      <c r="W62" t="s">
+        <v>38</v>
+      </c>
+      <c r="X62" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC62"/>
+    </row>
+    <row r="63" spans="1:29">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63">
+        <v>6136</v>
+      </c>
+      <c r="C63">
+        <v>23261</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63"/>
+      <c r="I63">
+        <v>49506565899</v>
+      </c>
+      <c r="J63"/>
+      <c r="K63">
+        <v>11</v>
+      </c>
+      <c r="L63">
+        <v>872</v>
+      </c>
+      <c r="M63" t="s">
+        <v>50</v>
+      </c>
+      <c r="N63" t="s">
+        <v>86</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63">
+        <v>27.5</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63" t="s">
+        <v>53</v>
+      </c>
+      <c r="S63" t="s">
+        <v>37</v>
+      </c>
+      <c r="T63" t="s">
+        <v>37</v>
+      </c>
+      <c r="U63" t="s">
+        <v>37</v>
+      </c>
+      <c r="V63" t="s">
+        <v>53</v>
+      </c>
+      <c r="W63" t="s">
+        <v>38</v>
+      </c>
+      <c r="X63" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC63"/>
+    </row>
+    <row r="64" spans="1:29">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64">
+        <v>6136</v>
+      </c>
+      <c r="C64">
+        <v>23261</v>
+      </c>
+      <c r="D64" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" t="s">
+        <v>141</v>
+      </c>
+      <c r="H64"/>
+      <c r="I64" t="s">
+        <v>142</v>
+      </c>
+      <c r="J64"/>
+      <c r="K64">
+        <v>11</v>
+      </c>
+      <c r="L64">
+        <v>872</v>
+      </c>
+      <c r="M64" t="s">
+        <v>50</v>
+      </c>
+      <c r="N64" t="s">
+        <v>86</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64">
+        <v>27.5</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64" t="s">
+        <v>53</v>
+      </c>
+      <c r="S64" t="s">
+        <v>37</v>
+      </c>
+      <c r="T64" t="s">
+        <v>37</v>
+      </c>
+      <c r="U64" t="s">
+        <v>37</v>
+      </c>
+      <c r="V64" t="s">
+        <v>53</v>
+      </c>
+      <c r="W64" t="s">
+        <v>84</v>
+      </c>
+      <c r="X64" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC64"/>
+    </row>
+    <row r="65" spans="1:29">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65">
+        <v>6136</v>
+      </c>
+      <c r="C65">
+        <v>23261</v>
+      </c>
+      <c r="D65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" t="s">
+        <v>141</v>
+      </c>
+      <c r="H65"/>
+      <c r="I65" t="s">
+        <v>142</v>
+      </c>
+      <c r="J65"/>
+      <c r="K65">
+        <v>11</v>
+      </c>
+      <c r="L65">
+        <v>885</v>
+      </c>
+      <c r="M65" t="s">
+        <v>73</v>
+      </c>
+      <c r="N65" t="s">
+        <v>74</v>
+      </c>
+      <c r="O65" t="s">
+        <v>75</v>
+      </c>
+      <c r="P65">
+        <v>150.0</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65" t="s">
+        <v>76</v>
+      </c>
+      <c r="S65" t="s">
+        <v>37</v>
+      </c>
+      <c r="T65" t="s">
+        <v>37</v>
+      </c>
+      <c r="U65" t="s">
+        <v>37</v>
+      </c>
+      <c r="V65" t="s">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s">
+        <v>84</v>
+      </c>
+      <c r="X65" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC65"/>
+    </row>
+    <row r="66" spans="1:29">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66">
+        <v>6136</v>
+      </c>
+      <c r="C66">
+        <v>23261</v>
+      </c>
+      <c r="D66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s">
+        <v>143</v>
+      </c>
+      <c r="H66">
+        <v>29072582810</v>
+      </c>
+      <c r="I66">
+        <v>29072582810</v>
+      </c>
+      <c r="J66">
+        <v>550973599</v>
+      </c>
+      <c r="K66">
+        <v>11</v>
+      </c>
+      <c r="L66">
+        <v>755</v>
+      </c>
+      <c r="M66" t="s">
+        <v>45</v>
+      </c>
+      <c r="N66" t="s">
+        <v>46</v>
+      </c>
+      <c r="O66" t="s">
+        <v>47</v>
+      </c>
+      <c r="P66">
+        <v>10.71</v>
+      </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+      <c r="R66" t="s">
+        <v>48</v>
+      </c>
+      <c r="S66" t="s">
+        <v>49</v>
+      </c>
+      <c r="T66" t="s">
+        <v>37</v>
+      </c>
+      <c r="U66" t="s">
+        <v>37</v>
+      </c>
+      <c r="V66" t="s">
+        <v>48</v>
+      </c>
+      <c r="W66" t="s">
+        <v>61</v>
+      </c>
+      <c r="X66" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC66"/>
+    </row>
+    <row r="67" spans="1:29">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67">
+        <v>6136</v>
+      </c>
+      <c r="C67">
+        <v>23261</v>
+      </c>
+      <c r="D67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s">
+        <v>143</v>
+      </c>
+      <c r="H67">
+        <v>29072582810</v>
+      </c>
+      <c r="I67">
+        <v>29072582810</v>
+      </c>
+      <c r="J67"/>
+      <c r="K67">
+        <v>11</v>
+      </c>
+      <c r="L67">
+        <v>872</v>
+      </c>
+      <c r="M67" t="s">
+        <v>50</v>
+      </c>
+      <c r="N67" t="s">
+        <v>51</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67">
+        <v>27.5</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67" t="s">
+        <v>53</v>
+      </c>
+      <c r="S67" t="s">
+        <v>37</v>
+      </c>
+      <c r="T67" t="s">
+        <v>37</v>
+      </c>
+      <c r="U67" t="s">
+        <v>37</v>
+      </c>
+      <c r="V67" t="s">
+        <v>53</v>
+      </c>
+      <c r="W67" t="s">
+        <v>61</v>
+      </c>
+      <c r="X67" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB67" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC67"/>
+    </row>
+    <row r="68" spans="1:29">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68">
+        <v>6136</v>
+      </c>
+      <c r="C68">
+        <v>23261</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68"/>
+      <c r="I68">
+        <v>44803781893</v>
+      </c>
+      <c r="J68"/>
+      <c r="K68">
+        <v>11</v>
+      </c>
+      <c r="L68">
+        <v>872</v>
+      </c>
+      <c r="M68" t="s">
+        <v>50</v>
+      </c>
+      <c r="N68" t="s">
+        <v>51</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68">
+        <v>27.5</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68" t="s">
+        <v>53</v>
+      </c>
+      <c r="S68" t="s">
+        <v>37</v>
+      </c>
+      <c r="T68" t="s">
+        <v>37</v>
+      </c>
+      <c r="U68" t="s">
+        <v>37</v>
+      </c>
+      <c r="V68" t="s">
+        <v>53</v>
+      </c>
+      <c r="W68" t="s">
+        <v>82</v>
+      </c>
+      <c r="X68" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC68"/>
+    </row>
+    <row r="69" spans="1:29">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69">
+        <v>6136</v>
+      </c>
+      <c r="C69">
+        <v>23261</v>
+      </c>
+      <c r="D69" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69"/>
+      <c r="I69">
+        <v>44803781893</v>
+      </c>
+      <c r="J69">
+        <v>1283599480</v>
+      </c>
+      <c r="K69">
+        <v>11</v>
+      </c>
+      <c r="L69">
+        <v>755</v>
+      </c>
+      <c r="M69" t="s">
+        <v>45</v>
+      </c>
+      <c r="N69" t="s">
+        <v>90</v>
+      </c>
+      <c r="O69" t="s">
+        <v>58</v>
+      </c>
+      <c r="P69">
+        <v>5.7</v>
+      </c>
+      <c r="Q69">
+        <v>2</v>
+      </c>
+      <c r="R69" t="s">
+        <v>59</v>
+      </c>
+      <c r="S69" t="s">
+        <v>64</v>
+      </c>
+      <c r="T69" t="s">
+        <v>37</v>
+      </c>
+      <c r="U69" t="s">
+        <v>37</v>
+      </c>
+      <c r="V69" t="s">
+        <v>59</v>
+      </c>
+      <c r="W69" t="s">
+        <v>82</v>
+      </c>
+      <c r="X69" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC69"/>
+    </row>
+    <row r="70" spans="1:29">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70">
+        <v>6136</v>
+      </c>
+      <c r="C70">
+        <v>23261</v>
+      </c>
+      <c r="D70" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" t="s">
+        <v>30</v>
+      </c>
+      <c r="F70" t="s">
+        <v>31</v>
+      </c>
+      <c r="G70" t="s">
+        <v>144</v>
+      </c>
+      <c r="H70"/>
+      <c r="I70">
+        <v>44803781893</v>
+      </c>
+      <c r="J70"/>
+      <c r="K70">
+        <v>11</v>
+      </c>
+      <c r="L70">
+        <v>755</v>
+      </c>
+      <c r="M70" t="s">
+        <v>45</v>
+      </c>
+      <c r="N70" t="s">
+        <v>90</v>
+      </c>
+      <c r="O70" t="s">
+        <v>58</v>
+      </c>
+      <c r="P70">
+        <v>5.7</v>
+      </c>
+      <c r="Q70">
+        <v>2</v>
+      </c>
+      <c r="R70" t="s">
+        <v>59</v>
+      </c>
+      <c r="S70" t="s">
+        <v>64</v>
+      </c>
+      <c r="T70" t="s">
+        <v>37</v>
+      </c>
+      <c r="U70" t="s">
+        <v>37</v>
+      </c>
+      <c r="V70" t="s">
+        <v>59</v>
+      </c>
+      <c r="W70" t="s">
+        <v>82</v>
+      </c>
+      <c r="X70" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC70"/>
+    </row>
+    <row r="71" spans="1:29">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71">
+        <v>6136</v>
+      </c>
+      <c r="C71">
+        <v>23261</v>
+      </c>
+      <c r="D71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" t="s">
+        <v>144</v>
+      </c>
+      <c r="H71"/>
+      <c r="I71">
+        <v>44803781893</v>
+      </c>
+      <c r="J71"/>
+      <c r="K71">
+        <v>11</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71" t="s">
+        <v>41</v>
+      </c>
+      <c r="N71" t="s">
+        <v>42</v>
+      </c>
+      <c r="O71" t="s">
+        <v>145</v>
+      </c>
+      <c r="P71">
+        <v>171.0</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71" t="s">
+        <v>146</v>
+      </c>
+      <c r="S71" t="s">
+        <v>37</v>
+      </c>
+      <c r="T71" t="s">
+        <v>37</v>
+      </c>
+      <c r="U71" t="s">
+        <v>37</v>
+      </c>
+      <c r="V71" t="s">
+        <v>146</v>
+      </c>
+      <c r="W71" t="s">
+        <v>82</v>
+      </c>
+      <c r="X71" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC71"/>
+    </row>
+    <row r="72" spans="1:29">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72">
+        <v>6136</v>
+      </c>
+      <c r="C72">
+        <v>23261</v>
+      </c>
+      <c r="D72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s">
+        <v>144</v>
+      </c>
+      <c r="H72"/>
+      <c r="I72">
+        <v>44803781893</v>
+      </c>
+      <c r="J72"/>
+      <c r="K72">
+        <v>11</v>
+      </c>
+      <c r="L72">
+        <v>755</v>
+      </c>
+      <c r="M72" t="s">
+        <v>45</v>
+      </c>
+      <c r="N72" t="s">
+        <v>90</v>
+      </c>
+      <c r="O72" t="s">
+        <v>147</v>
+      </c>
+      <c r="P72">
+        <v>216.6</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72" t="s">
+        <v>148</v>
+      </c>
+      <c r="S72" t="s">
+        <v>149</v>
+      </c>
+      <c r="T72" t="s">
+        <v>37</v>
+      </c>
+      <c r="U72" t="s">
+        <v>37</v>
+      </c>
+      <c r="V72" t="s">
+        <v>148</v>
+      </c>
+      <c r="W72" t="s">
+        <v>82</v>
+      </c>
+      <c r="X72" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC72"/>
+    </row>
+    <row r="73" spans="1:29">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73">
+        <v>6136</v>
+      </c>
+      <c r="C73">
+        <v>23261</v>
+      </c>
+      <c r="D73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" t="s">
+        <v>30</v>
+      </c>
+      <c r="F73" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" t="s">
+        <v>144</v>
+      </c>
+      <c r="H73"/>
+      <c r="I73">
+        <v>44803781893</v>
+      </c>
+      <c r="J73"/>
+      <c r="K73">
+        <v>11</v>
+      </c>
+      <c r="L73">
+        <v>755</v>
+      </c>
+      <c r="M73" t="s">
+        <v>45</v>
+      </c>
+      <c r="N73" t="s">
+        <v>90</v>
+      </c>
+      <c r="O73" t="s">
+        <v>58</v>
+      </c>
+      <c r="P73">
+        <v>5.7</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73" t="s">
+        <v>59</v>
+      </c>
+      <c r="S73" t="s">
+        <v>64</v>
+      </c>
+      <c r="T73" t="s">
+        <v>37</v>
+      </c>
+      <c r="U73" t="s">
+        <v>37</v>
+      </c>
+      <c r="V73" t="s">
+        <v>59</v>
+      </c>
+      <c r="W73" t="s">
+        <v>82</v>
+      </c>
+      <c r="X73" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC73"/>
+    </row>
+    <row r="74" spans="1:29">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74">
+        <v>6136</v>
+      </c>
+      <c r="C74">
+        <v>23261</v>
+      </c>
+      <c r="D74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" t="s">
+        <v>150</v>
+      </c>
+      <c r="H74"/>
+      <c r="I74">
+        <v>51232521850</v>
+      </c>
+      <c r="J74">
+        <v>1211376540</v>
+      </c>
+      <c r="K74">
+        <v>11</v>
+      </c>
+      <c r="L74">
+        <v>755</v>
+      </c>
+      <c r="M74" t="s">
+        <v>45</v>
+      </c>
+      <c r="N74" t="s">
+        <v>46</v>
+      </c>
+      <c r="O74" t="s">
+        <v>47</v>
+      </c>
+      <c r="P74">
+        <v>10.71</v>
+      </c>
+      <c r="Q74">
+        <v>2</v>
+      </c>
+      <c r="R74" t="s">
+        <v>48</v>
+      </c>
+      <c r="S74" t="s">
+        <v>49</v>
+      </c>
+      <c r="T74" t="s">
+        <v>37</v>
+      </c>
+      <c r="U74" t="s">
+        <v>37</v>
+      </c>
+      <c r="V74" t="s">
+        <v>48</v>
+      </c>
+      <c r="W74" t="s">
+        <v>92</v>
+      </c>
+      <c r="X74" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC74"/>
+    </row>
+    <row r="75" spans="1:29">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75">
+        <v>6136</v>
+      </c>
+      <c r="C75">
+        <v>23261</v>
+      </c>
+      <c r="D75" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" t="s">
+        <v>150</v>
+      </c>
+      <c r="H75"/>
+      <c r="I75">
+        <v>51232521850</v>
+      </c>
+      <c r="J75"/>
+      <c r="K75">
+        <v>11</v>
+      </c>
+      <c r="L75">
+        <v>872</v>
+      </c>
+      <c r="M75" t="s">
+        <v>50</v>
+      </c>
+      <c r="N75" t="s">
+        <v>51</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75">
+        <v>27.5</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75" t="s">
+        <v>53</v>
+      </c>
+      <c r="S75" t="s">
+        <v>37</v>
+      </c>
+      <c r="T75" t="s">
+        <v>37</v>
+      </c>
+      <c r="U75" t="s">
+        <v>37</v>
+      </c>
+      <c r="V75" t="s">
+        <v>53</v>
+      </c>
+      <c r="W75" t="s">
+        <v>92</v>
+      </c>
+      <c r="X75" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC75"/>
+    </row>
+    <row r="76" spans="1:29">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76">
+        <v>6136</v>
+      </c>
+      <c r="C76">
+        <v>23261</v>
+      </c>
+      <c r="D76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" t="s">
+        <v>150</v>
+      </c>
+      <c r="H76"/>
+      <c r="I76">
+        <v>51232521850</v>
+      </c>
+      <c r="J76"/>
+      <c r="K76">
+        <v>11</v>
+      </c>
+      <c r="L76">
+        <v>872</v>
+      </c>
+      <c r="M76" t="s">
+        <v>50</v>
+      </c>
+      <c r="N76" t="s">
+        <v>86</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76">
+        <v>27.5</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76" t="s">
+        <v>53</v>
+      </c>
+      <c r="S76" t="s">
+        <v>37</v>
+      </c>
+      <c r="T76" t="s">
+        <v>37</v>
+      </c>
+      <c r="U76" t="s">
+        <v>37</v>
+      </c>
+      <c r="V76" t="s">
+        <v>53</v>
+      </c>
+      <c r="W76" t="s">
+        <v>92</v>
+      </c>
+      <c r="X76" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC76"/>
+    </row>
+    <row r="77" spans="1:29">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77">
+        <v>6136</v>
+      </c>
+      <c r="C77">
+        <v>23261</v>
+      </c>
+      <c r="D77" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
+        <v>151</v>
+      </c>
+      <c r="H77"/>
+      <c r="I77">
+        <v>11507951825</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77">
+        <v>11</v>
+      </c>
+      <c r="L77">
+        <v>872</v>
+      </c>
+      <c r="M77" t="s">
+        <v>50</v>
+      </c>
+      <c r="N77" t="s">
+        <v>51</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77">
+        <v>27.5</v>
+      </c>
+      <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77" t="s">
+        <v>53</v>
+      </c>
+      <c r="S77" t="s">
+        <v>37</v>
+      </c>
+      <c r="T77" t="s">
+        <v>37</v>
+      </c>
+      <c r="U77" t="s">
+        <v>37</v>
+      </c>
+      <c r="V77" t="s">
+        <v>53</v>
+      </c>
+      <c r="W77" t="s">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC77"/>
+    </row>
+    <row r="78" spans="1:29">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78">
+        <v>6136</v>
+      </c>
+      <c r="C78">
+        <v>23261</v>
+      </c>
+      <c r="D78" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" t="s">
+        <v>151</v>
+      </c>
+      <c r="H78"/>
+      <c r="I78">
+        <v>11507951825</v>
+      </c>
+      <c r="J78"/>
+      <c r="K78">
+        <v>11</v>
+      </c>
+      <c r="L78">
+        <v>885</v>
+      </c>
+      <c r="M78" t="s">
+        <v>73</v>
+      </c>
+      <c r="N78" t="s">
+        <v>74</v>
+      </c>
+      <c r="O78" t="s">
+        <v>37</v>
+      </c>
+      <c r="P78">
+        <v>0.0</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78" t="s">
+        <v>37</v>
+      </c>
+      <c r="S78" t="s">
+        <v>37</v>
+      </c>
+      <c r="T78" t="s">
+        <v>37</v>
+      </c>
+      <c r="U78" t="s">
+        <v>37</v>
+      </c>
+      <c r="V78" t="s">
+        <v>37</v>
+      </c>
+      <c r="W78" t="s">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC78"/>
+    </row>
+    <row r="79" spans="1:29">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79">
+        <v>6136</v>
+      </c>
+      <c r="C79">
+        <v>23261</v>
+      </c>
+      <c r="D79" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" t="s">
+        <v>151</v>
+      </c>
+      <c r="H79"/>
+      <c r="I79">
+        <v>11507951825</v>
+      </c>
+      <c r="J79">
+        <v>1282658517</v>
+      </c>
+      <c r="K79">
+        <v>11</v>
+      </c>
+      <c r="L79">
+        <v>755</v>
+      </c>
+      <c r="M79" t="s">
+        <v>45</v>
+      </c>
+      <c r="N79" t="s">
+        <v>46</v>
+      </c>
+      <c r="O79" t="s">
+        <v>47</v>
+      </c>
+      <c r="P79">
+        <v>10.71</v>
+      </c>
+      <c r="Q79">
+        <v>2</v>
+      </c>
+      <c r="R79" t="s">
+        <v>48</v>
+      </c>
+      <c r="S79" t="s">
+        <v>49</v>
+      </c>
+      <c r="T79" t="s">
+        <v>37</v>
+      </c>
+      <c r="U79" t="s">
+        <v>37</v>
+      </c>
+      <c r="V79" t="s">
+        <v>48</v>
+      </c>
+      <c r="W79" t="s">
+        <v>79</v>
+      </c>
+      <c r="X79" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC79"/>
+    </row>
+    <row r="80" spans="1:29">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80">
+        <v>6136</v>
+      </c>
+      <c r="C80">
+        <v>23261</v>
+      </c>
+      <c r="D80" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" t="s">
+        <v>30</v>
+      </c>
+      <c r="F80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" t="s">
+        <v>151</v>
+      </c>
+      <c r="H80"/>
+      <c r="I80">
+        <v>11507951825</v>
+      </c>
+      <c r="J80"/>
+      <c r="K80">
+        <v>11</v>
+      </c>
+      <c r="L80">
+        <v>872</v>
+      </c>
+      <c r="M80" t="s">
+        <v>50</v>
+      </c>
+      <c r="N80" t="s">
+        <v>51</v>
+      </c>
+      <c r="O80" t="s">
+        <v>152</v>
+      </c>
+      <c r="P80">
+        <v>863.12</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80" t="s">
+        <v>153</v>
+      </c>
+      <c r="S80" t="s">
+        <v>37</v>
+      </c>
+      <c r="T80" t="s">
+        <v>37</v>
+      </c>
+      <c r="U80" t="s">
+        <v>37</v>
+      </c>
+      <c r="V80" t="s">
+        <v>153</v>
+      </c>
+      <c r="W80" t="s">
+        <v>79</v>
+      </c>
+      <c r="X80" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC80"/>
+    </row>
+    <row r="81" spans="1:29">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81">
+        <v>6136</v>
+      </c>
+      <c r="C81">
+        <v>23261</v>
+      </c>
+      <c r="D81" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" t="s">
+        <v>151</v>
+      </c>
+      <c r="H81"/>
+      <c r="I81">
+        <v>11507951825</v>
+      </c>
+      <c r="J81"/>
+      <c r="K81">
+        <v>11</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81" t="s">
+        <v>41</v>
+      </c>
+      <c r="N81" t="s">
+        <v>42</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81">
+        <v>27.5</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81" t="s">
+        <v>53</v>
+      </c>
+      <c r="S81" t="s">
+        <v>37</v>
+      </c>
+      <c r="T81" t="s">
+        <v>37</v>
+      </c>
+      <c r="U81" t="s">
+        <v>37</v>
+      </c>
+      <c r="V81" t="s">
+        <v>53</v>
+      </c>
+      <c r="W81" t="s">
+        <v>79</v>
+      </c>
+      <c r="X81" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC81"/>
+    </row>
+    <row r="82" spans="1:29">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82">
+        <v>6136</v>
+      </c>
+      <c r="C82">
+        <v>23261</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" t="s">
+        <v>30</v>
+      </c>
+      <c r="F82" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" t="s">
+        <v>154</v>
+      </c>
+      <c r="H82"/>
+      <c r="I82">
+        <v>36644764843</v>
+      </c>
+      <c r="J82"/>
+      <c r="K82">
+        <v>11</v>
+      </c>
+      <c r="L82">
+        <v>872</v>
+      </c>
+      <c r="M82" t="s">
+        <v>50</v>
+      </c>
+      <c r="N82" t="s">
+        <v>51</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82">
+        <v>27.5</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82" t="s">
+        <v>53</v>
+      </c>
+      <c r="S82" t="s">
+        <v>37</v>
+      </c>
+      <c r="T82" t="s">
+        <v>37</v>
+      </c>
+      <c r="U82" t="s">
+        <v>37</v>
+      </c>
+      <c r="V82" t="s">
+        <v>53</v>
+      </c>
+      <c r="W82" t="s">
+        <v>155</v>
+      </c>
+      <c r="X82" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC82"/>
+    </row>
+    <row r="83" spans="1:29">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83">
+        <v>6136</v>
+      </c>
+      <c r="C83">
+        <v>23261</v>
+      </c>
+      <c r="D83" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
+        <v>154</v>
+      </c>
+      <c r="H83"/>
+      <c r="I83">
+        <v>36644764843</v>
+      </c>
+      <c r="J83"/>
+      <c r="K83">
+        <v>11</v>
+      </c>
+      <c r="L83">
+        <v>885</v>
+      </c>
+      <c r="M83" t="s">
+        <v>73</v>
+      </c>
+      <c r="N83" t="s">
+        <v>74</v>
+      </c>
+      <c r="O83" t="s">
+        <v>75</v>
+      </c>
+      <c r="P83">
+        <v>150.0</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83" t="s">
+        <v>76</v>
+      </c>
+      <c r="S83" t="s">
+        <v>37</v>
+      </c>
+      <c r="T83" t="s">
+        <v>37</v>
+      </c>
+      <c r="U83" t="s">
+        <v>37</v>
+      </c>
+      <c r="V83" t="s">
+        <v>76</v>
+      </c>
+      <c r="W83" t="s">
+        <v>155</v>
+      </c>
+      <c r="X83" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC83"/>
+    </row>
+    <row r="84" spans="1:29">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84">
+        <v>6136</v>
+      </c>
+      <c r="C84">
+        <v>23261</v>
+      </c>
+      <c r="D84" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" t="s">
+        <v>30</v>
+      </c>
+      <c r="F84" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" t="s">
+        <v>156</v>
+      </c>
+      <c r="H84"/>
+      <c r="I84">
+        <v>21968137882</v>
+      </c>
+      <c r="J84"/>
+      <c r="K84">
+        <v>11</v>
+      </c>
+      <c r="L84">
+        <v>872</v>
+      </c>
+      <c r="M84" t="s">
+        <v>50</v>
+      </c>
+      <c r="N84" t="s">
+        <v>51</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84">
+        <v>27.5</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84" t="s">
+        <v>53</v>
+      </c>
+      <c r="S84" t="s">
+        <v>37</v>
+      </c>
+      <c r="T84" t="s">
+        <v>37</v>
+      </c>
+      <c r="U84" t="s">
+        <v>37</v>
+      </c>
+      <c r="V84" t="s">
+        <v>53</v>
+      </c>
+      <c r="W84" t="s">
+        <v>79</v>
+      </c>
+      <c r="X84" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC84"/>
+    </row>
+    <row r="85" spans="1:29">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85">
+        <v>6136</v>
+      </c>
+      <c r="C85">
+        <v>23261</v>
+      </c>
+      <c r="D85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" t="s">
+        <v>30</v>
+      </c>
+      <c r="F85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" t="s">
+        <v>156</v>
+      </c>
+      <c r="H85"/>
+      <c r="I85">
+        <v>21968137882</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85">
+        <v>11</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85" t="s">
+        <v>41</v>
+      </c>
+      <c r="N85" t="s">
+        <v>42</v>
+      </c>
+      <c r="O85" t="s">
+        <v>121</v>
+      </c>
+      <c r="P85">
+        <v>55.0</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85" t="s">
+        <v>122</v>
+      </c>
+      <c r="S85" t="s">
+        <v>37</v>
+      </c>
+      <c r="T85" t="s">
+        <v>37</v>
+      </c>
+      <c r="U85" t="s">
+        <v>37</v>
+      </c>
+      <c r="V85" t="s">
+        <v>122</v>
+      </c>
+      <c r="W85" t="s">
+        <v>79</v>
+      </c>
+      <c r="X85" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC85"/>
+    </row>
+    <row r="86" spans="1:29">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86">
+        <v>6136</v>
+      </c>
+      <c r="C86">
+        <v>23261</v>
+      </c>
+      <c r="D86" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" t="s">
+        <v>31</v>
+      </c>
+      <c r="G86" t="s">
+        <v>156</v>
+      </c>
+      <c r="H86"/>
+      <c r="I86">
+        <v>21968137882</v>
+      </c>
+      <c r="J86"/>
+      <c r="K86">
+        <v>11</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86" t="s">
+        <v>41</v>
+      </c>
+      <c r="N86" t="s">
+        <v>42</v>
+      </c>
+      <c r="O86" t="s">
+        <v>52</v>
+      </c>
+      <c r="P86">
+        <v>27.5</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+      <c r="R86" t="s">
+        <v>53</v>
+      </c>
+      <c r="S86" t="s">
+        <v>37</v>
+      </c>
+      <c r="T86" t="s">
+        <v>37</v>
+      </c>
+      <c r="U86" t="s">
+        <v>37</v>
+      </c>
+      <c r="V86" t="s">
+        <v>53</v>
+      </c>
+      <c r="W86" t="s">
+        <v>79</v>
+      </c>
+      <c r="X86" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC86"/>
+    </row>
+    <row r="87" spans="1:29">
+      <c r="A87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87">
+        <v>6136</v>
+      </c>
+      <c r="C87">
+        <v>23261</v>
+      </c>
+      <c r="D87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s">
+        <v>156</v>
+      </c>
+      <c r="H87"/>
+      <c r="I87">
+        <v>21968137882</v>
+      </c>
+      <c r="J87"/>
+      <c r="K87">
+        <v>11</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87" t="s">
+        <v>41</v>
+      </c>
+      <c r="N87" t="s">
+        <v>42</v>
+      </c>
+      <c r="O87" t="s">
+        <v>75</v>
+      </c>
+      <c r="P87">
+        <v>150.0</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
+      </c>
+      <c r="R87" t="s">
+        <v>76</v>
+      </c>
+      <c r="S87" t="s">
+        <v>37</v>
+      </c>
+      <c r="T87" t="s">
+        <v>37</v>
+      </c>
+      <c r="U87" t="s">
+        <v>37</v>
+      </c>
+      <c r="V87" t="s">
+        <v>76</v>
+      </c>
+      <c r="W87" t="s">
+        <v>79</v>
+      </c>
+      <c r="X87" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC87"/>
+    </row>
+    <row r="88" spans="1:29">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88">
+        <v>6136</v>
+      </c>
+      <c r="C88">
+        <v>23261</v>
+      </c>
+      <c r="D88" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" t="s">
+        <v>156</v>
+      </c>
+      <c r="H88"/>
+      <c r="I88">
+        <v>21968137882</v>
+      </c>
+      <c r="J88"/>
+      <c r="K88">
+        <v>11</v>
+      </c>
+      <c r="L88">
+        <v>885</v>
+      </c>
+      <c r="M88" t="s">
+        <v>73</v>
+      </c>
+      <c r="N88" t="s">
+        <v>74</v>
+      </c>
+      <c r="O88" t="s">
+        <v>75</v>
+      </c>
+      <c r="P88">
+        <v>150.0</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+      <c r="R88" t="s">
+        <v>76</v>
+      </c>
+      <c r="S88" t="s">
+        <v>37</v>
+      </c>
+      <c r="T88" t="s">
+        <v>37</v>
+      </c>
+      <c r="U88" t="s">
+        <v>37</v>
+      </c>
+      <c r="V88" t="s">
+        <v>76</v>
+      </c>
+      <c r="W88" t="s">
+        <v>79</v>
+      </c>
+      <c r="X88" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC88"/>
+    </row>
+    <row r="89" spans="1:29">
+      <c r="A89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89">
+        <v>6136</v>
+      </c>
+      <c r="C89">
+        <v>23261</v>
+      </c>
+      <c r="D89" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" t="s">
+        <v>30</v>
+      </c>
+      <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
+        <v>157</v>
+      </c>
+      <c r="H89">
+        <v>21884132880</v>
+      </c>
+      <c r="I89">
+        <v>21884132880</v>
+      </c>
+      <c r="J89"/>
+      <c r="K89">
+        <v>11</v>
+      </c>
+      <c r="L89">
+        <v>763</v>
+      </c>
+      <c r="M89" t="s">
+        <v>56</v>
+      </c>
+      <c r="N89" t="s">
+        <v>57</v>
+      </c>
+      <c r="O89" t="s">
+        <v>158</v>
+      </c>
+      <c r="P89">
+        <v>11.5</v>
+      </c>
+      <c r="Q89">
+        <v>2</v>
+      </c>
+      <c r="R89" t="s">
+        <v>159</v>
+      </c>
+      <c r="S89" t="s">
+        <v>160</v>
+      </c>
+      <c r="T89" t="s">
+        <v>37</v>
+      </c>
+      <c r="U89" t="s">
+        <v>37</v>
+      </c>
+      <c r="V89" t="s">
+        <v>159</v>
+      </c>
+      <c r="W89" t="s">
+        <v>61</v>
+      </c>
+      <c r="X89" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC89"/>
+    </row>
+    <row r="90" spans="1:29">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90">
+        <v>6136</v>
+      </c>
+      <c r="C90">
+        <v>23261</v>
+      </c>
+      <c r="D90" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" t="s">
+        <v>30</v>
+      </c>
+      <c r="F90" t="s">
+        <v>31</v>
+      </c>
+      <c r="G90" t="s">
+        <v>157</v>
+      </c>
+      <c r="H90">
+        <v>21884132880</v>
+      </c>
+      <c r="I90">
+        <v>21884132880</v>
+      </c>
+      <c r="J90"/>
+      <c r="K90">
+        <v>11</v>
+      </c>
+      <c r="L90">
+        <v>872</v>
+      </c>
+      <c r="M90" t="s">
+        <v>50</v>
+      </c>
+      <c r="N90" t="s">
+        <v>51</v>
+      </c>
+      <c r="O90" t="s">
+        <v>52</v>
+      </c>
+      <c r="P90">
+        <v>27.5</v>
+      </c>
+      <c r="Q90">
+        <v>1</v>
+      </c>
+      <c r="R90" t="s">
+        <v>53</v>
+      </c>
+      <c r="S90" t="s">
+        <v>37</v>
+      </c>
+      <c r="T90" t="s">
+        <v>37</v>
+      </c>
+      <c r="U90" t="s">
+        <v>37</v>
+      </c>
+      <c r="V90" t="s">
+        <v>53</v>
+      </c>
+      <c r="W90" t="s">
+        <v>61</v>
+      </c>
+      <c r="X90" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC90"/>
+    </row>
+    <row r="91" spans="1:29">
+      <c r="A91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91">
+        <v>6136</v>
+      </c>
+      <c r="C91">
+        <v>23261</v>
+      </c>
+      <c r="D91" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" t="s">
+        <v>31</v>
+      </c>
+      <c r="G91" t="s">
+        <v>157</v>
+      </c>
+      <c r="H91">
+        <v>21884132880</v>
+      </c>
+      <c r="I91">
+        <v>21884132880</v>
+      </c>
+      <c r="J91"/>
+      <c r="K91">
+        <v>11</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91" t="s">
+        <v>41</v>
+      </c>
+      <c r="N91" t="s">
+        <v>42</v>
+      </c>
+      <c r="O91" t="s">
+        <v>161</v>
+      </c>
+      <c r="P91">
+        <v>73.5</v>
+      </c>
+      <c r="Q91">
+        <v>1</v>
+      </c>
+      <c r="R91" t="s">
+        <v>162</v>
+      </c>
+      <c r="S91" t="s">
+        <v>37</v>
+      </c>
+      <c r="T91" t="s">
+        <v>37</v>
+      </c>
+      <c r="U91" t="s">
+        <v>37</v>
+      </c>
+      <c r="V91" t="s">
+        <v>162</v>
+      </c>
+      <c r="W91" t="s">
+        <v>61</v>
+      </c>
+      <c r="X91" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC91"/>
+    </row>
+    <row r="92" spans="1:29">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92">
+        <v>6136</v>
+      </c>
+      <c r="C92">
+        <v>23261</v>
+      </c>
+      <c r="D92" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" t="s">
+        <v>30</v>
+      </c>
+      <c r="F92" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" t="s">
+        <v>163</v>
+      </c>
+      <c r="H92"/>
+      <c r="I92">
+        <v>32351245865</v>
+      </c>
+      <c r="J92">
+        <v>1223936090</v>
+      </c>
+      <c r="K92">
+        <v>11</v>
+      </c>
+      <c r="L92">
+        <v>755</v>
+      </c>
+      <c r="M92" t="s">
+        <v>45</v>
+      </c>
+      <c r="N92" t="s">
+        <v>46</v>
+      </c>
+      <c r="O92" t="s">
+        <v>47</v>
+      </c>
+      <c r="P92">
+        <v>10.71</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+      <c r="R92" t="s">
+        <v>48</v>
+      </c>
+      <c r="S92" t="s">
+        <v>49</v>
+      </c>
+      <c r="T92" t="s">
+        <v>37</v>
+      </c>
+      <c r="U92" t="s">
+        <v>37</v>
+      </c>
+      <c r="V92" t="s">
+        <v>48</v>
+      </c>
+      <c r="W92" t="s">
+        <v>38</v>
+      </c>
+      <c r="X92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC92"/>
+    </row>
+    <row r="93" spans="1:29">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93">
+        <v>6136</v>
+      </c>
+      <c r="C93">
+        <v>23261</v>
+      </c>
+      <c r="D93" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" t="s">
+        <v>163</v>
+      </c>
+      <c r="H93"/>
+      <c r="I93">
+        <v>32351245865</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93">
+        <v>11</v>
+      </c>
+      <c r="L93">
+        <v>872</v>
+      </c>
+      <c r="M93" t="s">
+        <v>50</v>
+      </c>
+      <c r="N93" t="s">
+        <v>51</v>
+      </c>
+      <c r="O93" t="s">
+        <v>97</v>
+      </c>
+      <c r="P93">
+        <v>0.01</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+      <c r="R93" t="s">
+        <v>164</v>
+      </c>
+      <c r="S93" t="s">
+        <v>37</v>
+      </c>
+      <c r="T93" t="s">
+        <v>37</v>
+      </c>
+      <c r="U93" t="s">
+        <v>37</v>
+      </c>
+      <c r="V93" t="s">
+        <v>164</v>
+      </c>
+      <c r="W93" t="s">
+        <v>38</v>
+      </c>
+      <c r="X93" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC93"/>
+    </row>
+    <row r="94" spans="1:29">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94">
+        <v>6136</v>
+      </c>
+      <c r="C94">
+        <v>23261</v>
+      </c>
+      <c r="D94" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" t="s">
+        <v>30</v>
+      </c>
+      <c r="F94" t="s">
+        <v>31</v>
+      </c>
+      <c r="G94" t="s">
+        <v>163</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94">
+        <v>32351245865</v>
+      </c>
+      <c r="J94"/>
+      <c r="K94">
+        <v>11</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94" t="s">
+        <v>41</v>
+      </c>
+      <c r="N94" t="s">
+        <v>42</v>
+      </c>
+      <c r="O94" t="s">
+        <v>165</v>
+      </c>
+      <c r="P94">
+        <v>504.26</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94" t="s">
+        <v>166</v>
+      </c>
+      <c r="S94" t="s">
+        <v>37</v>
+      </c>
+      <c r="T94" t="s">
+        <v>37</v>
+      </c>
+      <c r="U94" t="s">
+        <v>37</v>
+      </c>
+      <c r="V94" t="s">
+        <v>166</v>
+      </c>
+      <c r="W94" t="s">
+        <v>38</v>
+      </c>
+      <c r="X94" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC94"/>
+    </row>
+    <row r="95" spans="1:29">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95">
+        <v>6136</v>
+      </c>
+      <c r="C95">
+        <v>23261</v>
+      </c>
+      <c r="D95" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F95" t="s">
+        <v>31</v>
+      </c>
+      <c r="G95" t="s">
+        <v>163</v>
+      </c>
+      <c r="H95"/>
+      <c r="I95">
+        <v>32351245865</v>
+      </c>
+      <c r="J95"/>
+      <c r="K95">
+        <v>11</v>
+      </c>
+      <c r="L95">
+        <v>872</v>
+      </c>
+      <c r="M95" t="s">
+        <v>50</v>
+      </c>
+      <c r="N95" t="s">
+        <v>51</v>
+      </c>
+      <c r="O95" t="s">
+        <v>52</v>
+      </c>
+      <c r="P95">
+        <v>27.5</v>
+      </c>
+      <c r="Q95">
+        <v>1</v>
+      </c>
+      <c r="R95" t="s">
+        <v>53</v>
+      </c>
+      <c r="S95" t="s">
+        <v>37</v>
+      </c>
+      <c r="T95" t="s">
+        <v>37</v>
+      </c>
+      <c r="U95" t="s">
+        <v>37</v>
+      </c>
+      <c r="V95" t="s">
+        <v>53</v>
+      </c>
+      <c r="W95" t="s">
+        <v>38</v>
+      </c>
+      <c r="X95" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC95"/>
+    </row>
+    <row r="96" spans="1:29">
+      <c r="A96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96">
+        <v>6136</v>
+      </c>
+      <c r="C96">
+        <v>23261</v>
+      </c>
+      <c r="D96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" t="s">
+        <v>163</v>
+      </c>
+      <c r="H96"/>
+      <c r="I96">
+        <v>32351245865</v>
+      </c>
+      <c r="J96"/>
+      <c r="K96">
+        <v>11</v>
+      </c>
+      <c r="L96">
+        <v>872</v>
+      </c>
+      <c r="M96" t="s">
+        <v>50</v>
+      </c>
+      <c r="N96" t="s">
+        <v>86</v>
+      </c>
+      <c r="O96" t="s">
+        <v>52</v>
+      </c>
+      <c r="P96">
+        <v>27.5</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+      <c r="R96" t="s">
+        <v>53</v>
+      </c>
+      <c r="S96" t="s">
+        <v>37</v>
+      </c>
+      <c r="T96" t="s">
+        <v>37</v>
+      </c>
+      <c r="U96" t="s">
+        <v>37</v>
+      </c>
+      <c r="V96" t="s">
+        <v>53</v>
+      </c>
+      <c r="W96" t="s">
+        <v>38</v>
+      </c>
+      <c r="X96" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC96"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
